--- a/data/daily_c2/call_apicases_daily.xlsx
+++ b/data/daily_c2/call_apicases_daily.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_call_queue" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -57,6 +57,13 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,11 +96,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -119,22 +137,13 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,10 +157,53 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,22 +546,22 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="8.109375"/>
-    <col customWidth="1" max="2" min="2" width="8.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="38.109375"/>
-    <col customWidth="1" max="4" min="4" width="25.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="8.44140625"/>
-    <col customWidth="1" max="6" min="6" width="63.44140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="10.44140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.77734375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="13.5546875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="8.109375"/>
+    <col customWidth="1" max="2" min="2" style="28" width="8.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="38.109375"/>
+    <col customWidth="1" max="4" min="4" style="28" width="25.44140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="8.44140625"/>
+    <col customWidth="1" max="6" min="6" style="28" width="63.44140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
+    <col customWidth="1" max="8" min="8" style="28" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="28" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,7 +570,7 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>target</t>
         </is>
@@ -564,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="2">
+    <row customHeight="1" ht="100.8" r="2" s="28">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -591,32 +643,51 @@
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "自动化测试队列请勿操作",
-"qno": "0211",
-"maxWait": 5,
-"memberTimeout": 25,
-"queueTimeout": 600,
-"strategy": "rrmemory",
-"weight": 1,
-"wrapupTime": 30,
-"serviceLevel": 15,
-"sayCno": 0,
-"sayCallee": 0,
-"vipSupport": 0,
-"ibAllowed": 1,
-"announceType": 0,
-"chatStrategy": "rrmemory",
-"chatMaxWait": 10,
-"chatQueueTimeout": 15,
-"chatQueueTimeoutEnabled": 0,
-"chatLocation": 10,
-"omniMembers": [],
-"callMembers": [],
-"chatMembers": [],
-"ticketStrategy": "random",
-"pauseConfigType": 0,
-"pauseConfigValue": "",
-"queueSkills": []
+    "name": "自动化测试队列请勿操作",
+    "qno": "0211",
+    "maxWait": 5,
+    "memberTimeout": 25,
+    "queueTimeout": 600,
+    "strategy": "rrmemory",
+    "weight": 1,
+    "wrapupTime": 30,
+    "serviceLevel": 15,
+    "sayCno": 0,
+    "sayCallee": 0,
+    "vipSupport": 0,
+    "ibAllowed": 1,
+    "smsFlag": 0,
+    "announceType": 0,
+    "chatStrategy": "rrmemory",
+    "chatMaxWait": 10,
+    "chatQueueTimeout": 15,
+    "chatQueueTimeoutEnabled": 0,
+    "chatLocation": 10,
+    "omniMembers": [],
+    "callMembers": [],
+    "chatMembers": [],
+    "ticketStrategy": "random",
+    "pauseConfigType": 0,
+    "pauseConfigValue": "",
+    "smsConfig": {
+        "smsCustomerIbNoAnswer": {
+            "openFlag": 1,
+            "config": {
+                "smsTemplateId": 90,
+                "startTime": 0,
+                "endTime": 1439
+            }
+        },
+        "smsCustomerIbBridge": {
+            "openFlag": 1,
+            "config": {
+                "smsTemplateId": 90,
+                "startTime": 0,
+                "endTime": 1439
+            }
+        }
+    },
+    "queueSkills": []
 }</t>
         </is>
       </c>
@@ -627,7 +698,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>{"status":400,"message":"页面请求有点小问题，请联系管理员"}</t>
+          <t>{"status":500,"message":"页面请求有点小问题，请联系管理员"}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -678,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="73.2" r="4">
+    <row customHeight="1" ht="73.2" r="4" s="28">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -705,32 +776,51 @@
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{
-"name": "自动化测试队列请勿操作New",
-"qno": "0211",
-"maxWait": 5,
-"memberTimeout": 25,
-"queueTimeout": 600,
-"strategy": "rrmemory",
-"weight": 1,
-"wrapupTime": 30,
-"serviceLevel": 15,
-"sayCno": 0,
-"sayCallee": 0,
-"vipSupport": 0,
-"ibAllowed": 1,
-"announceType": 0,
-"chatStrategy": "rrmemory",
-"chatMaxWait": 10,
-"chatQueueTimeout": 15,
-"chatQueueTimeoutEnabled": 0,
-"chatLocation": 10,
-"omniMembers": [],
-"callMembers": [],
-"chatMembers": [],
-"ticketStrategy": "random",
-"pauseConfigType": 0,
-"pauseConfigValue": "",
-"queueSkills": []
+    "name": "自动化测试队列请勿操作New",
+    "qno": "0211",
+    "maxWait": 5,
+    "memberTimeout": 25,
+    "queueTimeout": 600,
+    "strategy": "rrmemory",
+    "weight": 1,
+    "wrapupTime": 30,
+    "serviceLevel": 15,
+    "sayCno": 0,
+    "sayCallee": 0,
+    "vipSupport": 0,
+    "ibAllowed": 1,
+    "smsFlag": 0,
+    "announceType": 0,
+    "chatStrategy": "rrmemory",
+    "chatMaxWait": 10,
+    "chatQueueTimeout": 15,
+    "chatQueueTimeoutEnabled": 0,
+    "chatLocation": 10,
+    "omniMembers": [],
+    "callMembers": [],
+    "chatMembers": [],
+    "ticketStrategy": "random",
+    "pauseConfigType": 0,
+    "pauseConfigValue": "",
+    "smsConfig": {
+        "smsCustomerIbNoAnswer": {
+            "openFlag": 1,
+            "config": {
+                "smsTemplateId": 90,
+                "startTime": 0,
+                "endTime": 1439
+            }
+        },
+        "smsCustomerIbBridge": {
+            "openFlag": 1,
+            "config": {
+                "smsTemplateId": 90,
+                "startTime": 0,
+                "endTime": 1439
+            }
+        }
+    },
+    "queueSkills": []
 }</t>
         </is>
       </c>
@@ -797,7 +887,7 @@
           <t>console</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>monitor/queue?type=0</t>
         </is>
@@ -807,7 +897,7 @@
           <t>队列状态监控</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -874,912 +964,568 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A22" sqref="A22:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.44140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="35.88671875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="49.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.5546875"/>
+    <col customWidth="1" max="1" min="1" style="5" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="8"/>
+    <col customWidth="1" max="3" min="3" style="31" width="24"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="35.88671875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="31" width="8.21875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="38.21875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.77734375"/>
+    <col customWidth="1" max="8" min="8" style="28" width="7.109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="28" width="13"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="28" width="34.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="13.05" r="1" s="28">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="32" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>error_json</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="51.6" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="K1" s="33" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="2" s="28">
+      <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>create_client</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>queue/all</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="inlineStr">
+        <is>
+          <t>查询可选择队列</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F2" s="18" t="n"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="18" t="n"/>
+      <c r="I2" s="19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J2" s="18" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>[{"queueId":"$.result[0].'id'"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="230.4" r="3" s="28">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>新增座席成功</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E3" s="31" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "name":"自动化新增座席请勿操作",
-    "areaCode":"010",
-    "password":"e863ff95896f2fbb37f8b145317e3ea2",
-    "role":1,
-    "active":1,
-    "qnos":[
-        "0000"
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "type": 1,
+    "cno": "#client_daily_cno#",
+    "name": "自动化全渠道座席",
+    "areaCode": "025",
+     "password": "afdd0b4ad2ec172c586e2150770fbf9e",
+    "active": 1,
+    "wrapupTime": 30,
+    "idleTimeOut": 5,
+    "transferTimeout": 0,
+    "pauseConfigType": 0,
+    "power": 1,
+    "callPower": 1,
+    "searchPower": 1,
+    "transferPermission": 0,
+    "downloadRecord": 1,
+    "smsPermission": 0,
+    "hiddenTelType": 0,
+    "autoInvestigation": 1,
+    "recordPermission": [
+        1,
+        1
     ],
-    "hiddenTel":1,
-    "permission":{
-        "asr":0,
-        "call":1,
-        "cdr":1,
-        "recordDownload":1,
-        "sms":1,
-        "record":3,
-        "chat":0
-    },
-    "type":1,
-    "chatLimit":1,
-    "chatLimitNum":1
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="13" t="inlineStr">
+    "obClid": [],
+    "obClidChooseRule": 1,
+    "obClidDefault": [],
+    "ibWrapupType": 1,
+    "ticketViewPermission": 2,
+    "closeTicket": 0,
+    "commentPermission": 3,
+    "asrPermission": [
+        0,
+        0
+    ],
+    "obClidLeftRule": 0,
+    "hiddenDial": 0,
+    "autoAnswerDelay": 0,
+    "autoInvestigationMin": 0,
+    "rtcVideoEnabled": 0,
+    "rtcVideoPower": 2,
+    "rtcVideoDownload": 0,
+    "obClidType": 0,
+    "chatLimit": 1,
+    "chatSearchPower": 0,
+    "customerViewPermission": 1,
+    "queueMembers": [
+        {
+            "queueId": #queueId#,
+            "penalty": 1,
+            "defaultObGroup": 1
+        }
+    ],
+    "tagIds": [],
+    "agentMenus": [
+        {
+            "id": 1000,
+            "key": "home",
+            "value": "首页",
+            "selected": 1
+        },
+        {
+            "id": 2000,
+            "key": "call",
+            "value": "呼叫中心",
+            "selected": 1
+        },
+        {
+            "id": 3000,
+            "key": "online",
+            "value": "在线客服",
+            "selected": 1
+        },
+        {
+            "id": 4000,
+            "key": "mail",
+            "value": "电子邮件",
+            "selected": 1
+        },
+        {
+            "id": 5000,
+            "key": "record",
+            "value": "记录管理",
+            "selected": 1
+        },
+        {
+            "id": 6000,
+            "key": "customer",
+            "value": "客户管理",
+            "selected": 1
+        },
+        {
+            "id": 7000,
+            "key": "ticket",
+            "value": "工单管理",
+            "selected": 1
+        },
+        {
+            "id": 8000,
+            "key": "businessrecord",
+            "value": "业务记录",
+            "selected": 1
+        },
+        {
+            "id": 9000,
+            "key": "sms",
+            "value": "短信记录",
+            "selected": 1
+        },
+        {
+            "id": 10000,
+            "key": "contact",
+            "value": "回电计划",
+            "selected": 1
+        },
+        {
+            "id": 11000,
+            "key": "monitor",
+            "value": "系统监控",
+            "selected": 1
+        },
+        {
+            "id": 13000,
+            "key": "setting",
+            "value": "个人设置",
+            "selected": 1
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="12" t="inlineStr">
+        <is>
+          <t>{"status":400,"message":"座席已存在"}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G2" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"fd152787-30be-911c-826b-8e9ec7eef5d5","error":{"code":"ClientExist","message":"座席号已经存在"}}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="138.6" r="3">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>update_client</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="76.8" r="4" s="28">
+      <c r="A4" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>client?cnoOrName=#client_daily_cno#&amp;queueId=#queueId#&amp;offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>查询座席列表成功（按照队列查询）</t>
+        </is>
+      </c>
+      <c r="E4" s="30" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="n"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="n"/>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>[{"clientId": "$.result['data'][0][id]"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="87.59999999999999" r="5" s="28">
+      <c r="A5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>client/#clientId#</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>更新座席成功</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "name":"自动化新增座席请勿操作new",
-    "areaCode":"010",
-    "password":"e863ff95896f2fbb37f8b145317e3ea2",
-    "role":1,
-    "active":1,
-    "qnos":[
-        "0000"
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "type": 1,
+    "cno": "#client_daily_cno#",
+    "name": "自动化全渠道座席",
+    "areaCode": "025",
+     "password": "afdd0b4ad2ec172c586e2150770fbf9e",
+    "active": 1,
+    "wrapupTime": 30,
+    "idleTimeOut": 5,
+    "transferTimeout": 0,
+    "pauseConfigType": 0,
+    "power": 1,
+    "callPower": 1,
+    "searchPower": 1,
+    "transferPermission": 0,
+    "downloadRecord": 1,
+    "smsPermission": 0,
+    "hiddenTelType": 0,
+    "autoInvestigation": 1,
+    "recordPermission": [
+        1,
+        1
     ],
-    "hiddenTel":1,
-    "permission":{
-        "asr":0,
-        "call":1,
-        "cdr":1,
-        "recordDownload":1,
-        "sms":1,
-        "record":3,
-        "chat":0
-    },
-    "type":1,
-    "chatLimit":1,
-    "chatLimitNum":1
-}</t>
-        </is>
-      </c>
-      <c r="F3" s="13" t="inlineStr">
+    "obClid": [],
+    "obClidChooseRule": 1,
+    "obClidDefault": [],
+    "ibWrapupType": 1,
+    "ticketViewPermission": 2,
+    "closeTicket": 0,
+    "commentPermission": 3,
+    "asrPermission": [
+        0,
+        0
+    ],
+    "obClidLeftRule": 0,
+    "hiddenDial": 0,
+    "autoAnswerDelay": 0,
+    "autoInvestigationMin": 0,
+    "rtcVideoEnabled": 0,
+    "rtcVideoPower": 2,
+    "rtcVideoDownload": 0,
+    "obClidType": 0,
+    "chatLimit": 1,
+    "chatSearchPower": 0,
+    "customerViewPermission": 1,
+    "queueMembers": [
+        {
+            "queueId": #queueId#,
+            "penalty": 1,
+            "defaultObGroup": 1
+        }
+    ],
+    "tagIds": [],
+    "agentMenus": [
+        {
+            "id": 1000,
+            "key": "home",
+            "value": "首页",
+            "selected": 1
+        },
+        {
+            "id": 2000,
+            "key": "call",
+            "value": "呼叫中心",
+            "selected": 1
+        },
+        {
+            "id": 3000,
+            "key": "online",
+            "value": "在线客服",
+            "selected": 1
+        },
+        {
+            "id": 4000,
+            "key": "mail",
+            "value": "电子邮件",
+            "selected": 1
+        },
+        {
+            "id": 5000,
+            "key": "record",
+            "value": "记录管理",
+            "selected": 1
+        },
+        {
+            "id": 6000,
+            "key": "customer",
+            "value": "客户管理",
+            "selected": 1
+        },
+        {
+            "id": 7000,
+            "key": "ticket",
+            "value": "工单管理",
+            "selected": 1
+        },
+        {
+            "id": 8000,
+            "key": "businessrecord",
+            "value": "业务记录",
+            "selected": 1
+        },
+        {
+            "id": 9000,
+            "key": "sms",
+            "value": "短信记录",
+            "selected": 1
+        },
+        {
+            "id": 10000,
+            "key": "contact",
+            "value": "回电计划",
+            "selected": 1
+        },
+        {
+            "id": 11000,
+            "key": "monitor",
+            "value": "系统监控",
+            "selected": 1
+        },
+        {
+            "id": 13000,
+            "key": "setting",
+            "value": "个人设置",
+            "selected": 1
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="65.40000000000001" r="4">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>list_clients</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>查询座席列表成功</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="60" r="6" s="28">
+      <c r="A6" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>client/#clientId#</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>查询座席详情成功</t>
+        </is>
+      </c>
+      <c r="E6" s="31" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>limit=10&amp;offset=0</t>
-        </is>
-      </c>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="5">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>list_clients</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>查询座席列表成功（按照队列查询）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>qno=0000</t>
-        </is>
-      </c>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>describe_client</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>查询座席详情成功</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="7">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>create_exten</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>新建ip电话</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>{
-            "extenNumber": (None, "#daily_phone#"),
-            "password": (None, "123456"),
-            "areaCode": (None, "025"),
-            "type": (None, 1),
-            "allow": (None, 1)
-}</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t>form-data</t>
-        </is>
-      </c>
-      <c r="G7" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="69" r="8">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>bind_client_tel</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>绑定话机成功</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "tel":"#daily_phone#",
-    "isBind":1
-}</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G8" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="9">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>agent_status</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>座席状态监控</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
-        </is>
-      </c>
-      <c r="G9" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="10">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>座席上线</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "bindTel":"18061258520",
-    "bindType":1,
-    "status":1
-}</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G10" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="64.8" r="11">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>agent_status_detail</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>座席状态详情</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
-        </is>
-      </c>
-      <c r="G11" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="64.8" r="12">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>offline</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>座席下线</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "unbindTel":0
-}</t>
-        </is>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G12" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="13">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>unbind_client_tel</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>解绑话机成功</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G13" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"6b2ddb82-40b1-9aa4-aca0-16167303a210","error":{"code":"ClientOnline","message":"座席在线不能解绑座席"}}</t>
-        </is>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="14">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>delete_client_tel</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>删除座席电话成功</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "tel":"#daily_phone#"
-}</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G14" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.95" r="15">
-      <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>delete_client</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>删除座席成功</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="F15" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G15" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H15" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"a1466514-7413-9441-824a-399b2d38e871","error":{"code":"ClientOnline","message":"座席号在线中不允许删除"}}</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="16">
-      <c r="A16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>update_exten</t>
-        </is>
-      </c>
-      <c r="C16" s="16" t="inlineStr">
-        <is>
-          <t>修改话机</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E16" s="15" t="inlineStr">
-        <is>
-          <t>{
-            "extenNumber": (None, "#daily_phone#"),
-            "password": (None, "123456"),
-            "areaCode": (None, "025"),
-            "type": (None, 2),
-            "allow": (None, 6)
-}</t>
-        </is>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>form-data</t>
-        </is>
-      </c>
-      <c r="G16" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H16" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"0f019bf7-47f5-9110-9fd8-a691643da272","error":{"code":"InternalError","message":"服务内部错误，请稍后再试，或联系技术支持"}}</t>
-        </is>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="17">
-      <c r="A17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>describe_exten</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>查询话机详情</t>
-        </is>
-      </c>
-      <c r="D17" s="11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>extenNumber=#daily_phone#</t>
-        </is>
-      </c>
-      <c r="G17" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="18">
-      <c r="A18" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>list_extens</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>查询话机列表</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>areaCode=010&amp;limit=10&amp;offset=0&amp;type=2</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="19">
-      <c r="A19" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>delete_exten</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>删除话机</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>{
- "extenNumber": (None, "#daily_phone#")
-}</t>
-        </is>
-      </c>
-      <c r="F19" s="16" t="inlineStr">
-        <is>
-          <t>form-data</t>
-        </is>
-      </c>
-      <c r="G19" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="103.2" r="21"/>
-    <row customHeight="1" ht="76.8" r="25"/>
+      <c r="F6" s="20" t="n"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J6" s="24" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -1792,23 +1538,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="8.109375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="25.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="8.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="12.88671875"/>
-    <col customWidth="1" max="6" min="6" width="35.33203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="8.109375"/>
+    <col customWidth="1" max="2" min="2" style="28" width="24.6640625"/>
+    <col customWidth="1" max="3" min="3" style="28" width="25.44140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="8.44140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="12.88671875"/>
+    <col customWidth="1" max="6" min="6" style="28" width="35.33203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1858,7 +1604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row customHeight="1" ht="41.4" r="2" s="28">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1892,7 +1638,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="3">
+    <row customHeight="1" ht="41.4" r="3" s="28">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1928,6 +1674,523 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="58.8" r="7" s="28"/>
+    <row customHeight="1" ht="41.4" r="8" s="28"/>
+    <row customHeight="1" ht="135" r="9" s="28"/>
+    <row customHeight="1" ht="41.4" r="10" s="28"/>
+    <row customHeight="1" ht="84.59999999999999" r="11" s="28">
+      <c r="A11" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>exten</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>新建软电话</t>
+        </is>
+      </c>
+      <c r="E11" s="30" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "extenNumber": "#daily_phone#",
+    "areaCode": "025",
+    "allow": "myopus,alaw,ulaw",
+    "type": 2,
+    "expiresTime": 600
+}</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I11" s="12" t="n"/>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="71.40000000000001" r="12" s="28">
+      <c r="A12" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C12" s="25" t="inlineStr">
+        <is>
+          <t>client_tel</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>绑定话机成功</t>
+        </is>
+      </c>
+      <c r="E12" s="30" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "clientId":"#clientId#",
+    "tel":"#daily_phone#",
+    "bind":1
+}</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I12" s="12" t="n"/>
+      <c r="J12" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="64.8" r="13" s="28">
+      <c r="A13" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C13" s="26" t="inlineStr">
+        <is>
+          <t>monitor/client?offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>呼叫中心座席状态监控</t>
+        </is>
+      </c>
+      <c r="E13" s="31" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="66" r="14" s="28">
+      <c r="A14" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C14" s="26" t="inlineStr">
+        <is>
+          <t>client/loginOrLogout</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>座席上线</t>
+        </is>
+      </c>
+      <c r="E14" s="30" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>{
+"clientId": #clientId#,
+"loginOrLogout": 1
+}</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="66.59999999999999" r="15" s="28">
+      <c r="A15" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C15" s="30" t="inlineStr">
+        <is>
+          <t>client/loginOrLogout</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>座席下线</t>
+        </is>
+      </c>
+      <c r="E15" s="30" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>{
+"clientId": #clientId#,
+"loginOrLogout": 0
+}</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="234.6" r="16" s="28">
+      <c r="A16" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>解绑话机成功</t>
+        </is>
+      </c>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "cno":"#client_daily_cno#"
+}</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I16" s="12" t="inlineStr">
+        <is>
+          <t>{"requestId":"6b2ddb82-40b1-9aa4-aca0-16167303a210","error":{"code":"ClientOnline","message":"座席在线不能解绑座席"}}</t>
+        </is>
+      </c>
+      <c r="J16" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="17" s="28">
+      <c r="A17" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C17" s="26" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>删除座席电话成功</t>
+        </is>
+      </c>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "cno":"#client_daily_cno#",
+    "tel":"#daily_phone#"
+}</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I17" s="12" t="n"/>
+      <c r="J17" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="248.4" r="18" s="28">
+      <c r="A18" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>删除座席成功</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "cno":"#client_daily_cno#"
+}</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I18" s="12" t="inlineStr">
+        <is>
+          <t>{"requestId":"a1466514-7413-9441-824a-399b2d38e871","error":{"code":"ClientOnline","message":"座席号在线中不允许删除"}}</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="289.8" r="19" s="28">
+      <c r="A19" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>修改话机</t>
+        </is>
+      </c>
+      <c r="E19" s="31" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="inlineStr">
+        <is>
+          <t>{
+            "extenNumber": (None, "#daily_phone#"),
+            "password": (None, "123456"),
+            "areaCode": (None, "025"),
+            "type": (None, 2),
+            "allow": (None, 6)
+}</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I19" s="12" t="inlineStr">
+        <is>
+          <t>{"requestId":"0f019bf7-47f5-9110-9fd8-a691643da272","error":{"code":"InternalError","message":"服务内部错误，请稍后再试，或联系技术支持"}}</t>
+        </is>
+      </c>
+      <c r="J19" s="13" t="inlineStr">
+        <is>
+          <t>form-data</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="20" s="28">
+      <c r="A20" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>查询话机详情</t>
+        </is>
+      </c>
+      <c r="E20" s="30" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>extenNumber=#daily_phone#</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I20" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.4" r="21" s="28">
+      <c r="A21" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>查询话机列表</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>areaCode=010&amp;limit=10&amp;offset=0&amp;type=2</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I21" s="12" t="n"/>
+      <c r="J21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="55.2" r="22" s="28">
+      <c r="A22" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C22" s="30" t="n"/>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>删除话机</t>
+        </is>
+      </c>
+      <c r="E22" s="31" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>{
+ "extenNumber": (None, "#daily_phone#")
+}</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="n"/>
+      <c r="J22" s="13" t="inlineStr">
+        <is>
+          <t>form-data</t>
         </is>
       </c>
     </row>
@@ -1950,18 +2213,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="6.44140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="13"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="31.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="6.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="13"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="31.44140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="7.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="38.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13.05" r="1" s="28">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -2008,7 +2271,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="2">
+    <row customHeight="1" ht="69" r="2" s="28">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -2059,7 +2322,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="3">
+    <row customHeight="1" ht="69" r="3" s="28">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -2106,7 +2369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="49.95" r="4" s="28">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -2163,15 +2426,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="21.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="25.109375"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="28.44140625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" width="21.5546875"/>
+    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="21.5546875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="25.109375"/>
+    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
+    <col customWidth="1" max="5" min="5" style="28" width="28.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
+    <col customWidth="1" max="9" min="9" style="28" width="21.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2221,11 +2484,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.6" r="2">
+    <row customHeight="1" ht="42.6" r="2" s="28">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>list_cdr_ibs</t>
         </is>
@@ -2255,11 +2518,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="3">
+    <row customHeight="1" ht="41.4" r="3" s="28">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>describe_cdr_ib</t>
         </is>
@@ -2293,11 +2556,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="4">
+    <row customHeight="1" ht="41.4" r="4" s="28">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>describe_cdr_ib_details</t>
         </is>
@@ -2331,11 +2594,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="5">
+    <row customHeight="1" ht="41.4" r="5" s="28">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>list_cdr_obs</t>
         </is>
@@ -2364,7 +2627,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="6">
+    <row customHeight="1" ht="41.4" r="6" s="28">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -2402,7 +2665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row customHeight="1" ht="41.4" r="7" s="28">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -2440,11 +2703,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="8">
+    <row customHeight="1" ht="41.4" r="8" s="28">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>list_comments</t>
         </is>
@@ -2473,11 +2736,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="9">
+    <row customHeight="1" ht="41.4" r="9" s="28">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>list_investigations</t>
         </is>
@@ -2526,15 +2789,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="28"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="30"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="47.109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="28"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="30"/>
+    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
+    <col customWidth="1" max="5" min="5" style="28" width="47.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
+    <col customWidth="1" max="7" min="7" style="28" width="18.44140625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
+    <col customWidth="1" max="9" min="9" style="28" width="6.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2584,33 +2847,33 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.6" r="2">
+    <row customHeight="1" ht="42.6" r="2" s="28">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>stat_client_status</t>
         </is>
       </c>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>座席状态报表</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2629,26 +2892,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="3">
+    <row customHeight="1" ht="55.2" r="3" s="28">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>stat_client_workload</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>座席工作量报表</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="19" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2656,7 +2919,7 @@
 }</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2675,26 +2938,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="4">
+    <row customHeight="1" ht="55.2" r="4" s="28">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>stat_queue</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>队列报表</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="19" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2702,7 +2965,7 @@
 }</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2721,26 +2984,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="5">
+    <row customHeight="1" ht="55.2" r="5" s="28">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>stat_hotline_ib</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>呼入报表-来电统计</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="19" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2748,7 +3011,7 @@
 }</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2767,26 +3030,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="6">
+    <row customHeight="1" ht="55.2" r="6" s="28">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>stat_preview_ob</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>预览外呼报表</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="19" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2794,7 +3057,7 @@
 }</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2813,26 +3076,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="7">
+    <row customHeight="1" ht="55.2" r="7" s="28">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>stat_investigation_by_cno</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>满意度报表按座席统计</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2840,7 +3103,7 @@
 }</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2859,26 +3122,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="8">
+    <row customHeight="1" ht="55.2" r="8" s="28">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>stat_investigation_by_hotlines</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>满意度报表按热线号码统计</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="19" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2886,7 +3149,7 @@
 }</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2905,26 +3168,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="9">
+    <row customHeight="1" ht="55.2" r="9" s="28">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>stat_ivr_list</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>IVR统计报表</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="19" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2932,7 +3195,7 @@
 }</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -2951,33 +3214,33 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="10">
+    <row customHeight="1" ht="41.4" r="10" s="28">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>stat_ivr_nodes</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>IVR节点统计报表</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="19" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
@@ -3016,17 +3279,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="39.77734375"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="29.88671875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
+    <col customWidth="1" max="2" min="2" style="28" width="24.6640625"/>
+    <col customWidth="1" max="3" min="3" style="28" width="39.77734375"/>
+    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
+    <col customWidth="1" max="5" min="5" style="28" width="63.44140625"/>
+    <col customWidth="1" max="6" min="6" style="28" width="29.88671875"/>
+    <col customWidth="1" max="7" min="7" style="28" width="18.44140625"/>
+    <col customWidth="1" max="8" min="8" style="28" width="6.33203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13.05" r="1" s="28">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -3068,7 +3331,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row customHeight="1" ht="41.4" r="2" s="28">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -3112,7 +3375,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="49.95" r="3" s="28">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -3156,7 +3419,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="49.95" r="4" s="28">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3200,7 +3463,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5">
+    <row customHeight="1" ht="49.95" r="5" s="28">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -3245,7 +3508,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6">
+    <row customHeight="1" ht="49.95" r="6" s="28">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -3290,7 +3553,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7">
+    <row customHeight="1" ht="49.95" r="7" s="28">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -3335,7 +3598,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="8">
+    <row customHeight="1" ht="49.95" r="8" s="28">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -3379,7 +3642,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="9">
+    <row customHeight="1" ht="49.95" r="9" s="28">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -3424,7 +3687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="10">
+    <row customHeight="1" ht="49.95" r="10" s="28">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -3469,7 +3732,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="11">
+    <row customHeight="1" ht="49.95" r="11" s="28">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -3514,7 +3777,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="12">
+    <row customHeight="1" ht="49.95" r="12" s="28">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -3559,7 +3822,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="13">
+    <row customHeight="1" ht="49.95" r="13" s="28">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -3604,7 +3867,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="14">
+    <row customHeight="1" ht="49.95" r="14" s="28">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -3648,7 +3911,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="15">
+    <row customHeight="1" ht="49.95" r="15" s="28">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -3693,7 +3956,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="16">
+    <row customHeight="1" ht="49.95" r="16" s="28">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -3738,7 +4001,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="17">
+    <row customHeight="1" ht="49.95" r="17" s="28">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -3783,7 +4046,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="18">
+    <row customHeight="1" ht="49.95" r="18" s="28">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -3828,7 +4091,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="19">
+    <row customHeight="1" ht="49.95" r="19" s="28">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -3873,7 +4136,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="20">
+    <row customHeight="1" ht="49.95" r="20" s="28">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -3917,7 +4180,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="21">
+    <row customHeight="1" ht="49.95" r="21" s="28">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -3962,7 +4225,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="22">
+    <row customHeight="1" ht="49.95" r="22" s="28">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -4007,7 +4270,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="23">
+    <row customHeight="1" ht="49.95" r="23" s="28">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -4052,7 +4315,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="24">
+    <row customHeight="1" ht="49.95" r="24" s="28">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -4097,7 +4360,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="25">
+    <row customHeight="1" ht="49.95" r="25" s="28">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -4141,7 +4404,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="26">
+    <row customHeight="1" ht="49.95" r="26" s="28">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -4185,7 +4448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="27">
+    <row customHeight="1" ht="49.95" r="27" s="28">
       <c r="A27" t="n">
         <v>26</v>
       </c>
@@ -4229,7 +4492,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="28">
+    <row customHeight="1" ht="49.95" r="28" s="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
@@ -4274,7 +4537,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="29">
+    <row customHeight="1" ht="49.95" r="29" s="28">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -4319,7 +4582,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="30">
+    <row customHeight="1" ht="49.95" r="30" s="28">
       <c r="A30" t="n">
         <v>29</v>
       </c>
@@ -4363,7 +4626,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="31">
+    <row customHeight="1" ht="49.95" r="31" s="28">
       <c r="A31" t="n">
         <v>30</v>
       </c>
@@ -4407,7 +4670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="32">
+    <row customHeight="1" ht="49.95" r="32" s="28">
       <c r="A32" t="n">
         <v>31</v>
       </c>
@@ -4451,7 +4714,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="33">
+    <row customHeight="1" ht="49.95" r="33" s="28">
       <c r="A33" t="n">
         <v>32</v>
       </c>
@@ -4496,7 +4759,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="34">
+    <row customHeight="1" ht="49.95" r="34" s="28">
       <c r="A34" t="n">
         <v>33</v>
       </c>
@@ -4541,7 +4804,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="35">
+    <row customHeight="1" ht="49.95" r="35" s="28">
       <c r="A35" t="n">
         <v>34</v>
       </c>
@@ -4585,7 +4848,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="36">
+    <row customHeight="1" ht="49.95" r="36" s="28">
       <c r="A36" t="n">
         <v>35</v>
       </c>
@@ -4629,7 +4892,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="37">
+    <row customHeight="1" ht="49.95" r="37" s="28">
       <c r="A37" t="n">
         <v>36</v>
       </c>
@@ -4673,7 +4936,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="38">
+    <row customHeight="1" ht="49.95" r="38" s="28">
       <c r="A38" t="n">
         <v>37</v>
       </c>
@@ -4718,7 +4981,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="39">
+    <row customHeight="1" ht="49.95" r="39" s="28">
       <c r="A39" t="n">
         <v>38</v>
       </c>
@@ -4763,7 +5026,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="40">
+    <row customHeight="1" ht="49.95" r="40" s="28">
       <c r="A40" t="n">
         <v>39</v>
       </c>
@@ -4807,7 +5070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="41">
+    <row customHeight="1" ht="49.95" r="41" s="28">
       <c r="A41" t="n">
         <v>40</v>
       </c>
@@ -4851,7 +5114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="42">
+    <row customHeight="1" ht="49.95" r="42" s="28">
       <c r="A42" t="n">
         <v>41</v>
       </c>
@@ -4895,7 +5158,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="43">
+    <row customHeight="1" ht="49.95" r="43" s="28">
       <c r="A43" t="n">
         <v>42</v>
       </c>
@@ -4939,7 +5202,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="44">
+    <row customHeight="1" ht="49.95" r="44" s="28">
       <c r="A44" t="n">
         <v>43</v>
       </c>
@@ -4983,7 +5246,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="45">
+    <row customHeight="1" ht="49.95" r="45" s="28">
       <c r="A45" t="n">
         <v>44</v>
       </c>
@@ -5027,7 +5290,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="46">
+    <row customHeight="1" ht="49.95" r="46" s="28">
       <c r="A46" t="n">
         <v>45</v>
       </c>
@@ -5072,7 +5335,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="47">
+    <row customHeight="1" ht="49.95" r="47" s="28">
       <c r="A47" t="n">
         <v>46</v>
       </c>
@@ -5117,7 +5380,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="48">
+    <row customHeight="1" ht="49.95" r="48" s="28">
       <c r="A48" t="n">
         <v>47</v>
       </c>
@@ -5162,7 +5425,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="49">
+    <row customHeight="1" ht="49.95" r="49" s="28">
       <c r="A49" t="n">
         <v>48</v>
       </c>
@@ -5207,7 +5470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="50">
+    <row customHeight="1" ht="49.95" r="50" s="28">
       <c r="A50" t="n">
         <v>49</v>
       </c>
@@ -5251,7 +5514,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="51">
+    <row customHeight="1" ht="49.95" r="51" s="28">
       <c r="A51" t="n">
         <v>50</v>
       </c>
@@ -5295,7 +5558,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="52">
+    <row customHeight="1" ht="49.95" r="52" s="28">
       <c r="A52" t="n">
         <v>51</v>
       </c>
@@ -5339,7 +5602,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="53">
+    <row customHeight="1" ht="49.95" r="53" s="28">
       <c r="A53" t="n">
         <v>52</v>
       </c>
@@ -5384,7 +5647,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="54">
+    <row customHeight="1" ht="49.95" r="54" s="28">
       <c r="A54" t="n">
         <v>53</v>
       </c>
@@ -5429,7 +5692,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="55">
+    <row customHeight="1" ht="49.95" r="55" s="28">
       <c r="A55" t="n">
         <v>54</v>
       </c>
@@ -5474,7 +5737,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="56">
+    <row customHeight="1" ht="49.95" r="56" s="28">
       <c r="A56" t="n">
         <v>55</v>
       </c>
@@ -5519,7 +5782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="57">
+    <row customHeight="1" ht="49.95" r="57" s="28">
       <c r="A57" t="n">
         <v>56</v>
       </c>
@@ -5551,7 +5814,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="58">
+    <row customHeight="1" ht="49.95" r="58" s="28">
       <c r="A58" t="n">
         <v>57</v>
       </c>
@@ -5588,7 +5851,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="59">
+    <row customHeight="1" ht="49.95" r="59" s="28">
       <c r="A59" t="n">
         <v>58</v>
       </c>
@@ -5620,7 +5883,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="60">
+    <row customHeight="1" ht="49.95" r="60" s="28">
       <c r="A60" t="n">
         <v>59</v>
       </c>
@@ -5654,7 +5917,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="61">
+    <row customHeight="1" ht="49.95" r="61" s="28">
       <c r="A61" t="n">
         <v>60</v>
       </c>
@@ -5692,7 +5955,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="62">
+    <row customHeight="1" ht="49.95" r="62" s="28">
       <c r="A62" t="n">
         <v>61</v>
       </c>
@@ -5730,7 +5993,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="63">
+    <row customHeight="1" ht="49.95" r="63" s="28">
       <c r="A63" t="n">
         <v>62</v>
       </c>
@@ -5768,7 +6031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="64">
+    <row customHeight="1" ht="49.95" r="64" s="28">
       <c r="A64" t="n">
         <v>63</v>
       </c>
@@ -5806,7 +6069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="65">
+    <row customHeight="1" ht="49.95" r="65" s="28">
       <c r="A65" t="n">
         <v>64</v>
       </c>
@@ -5844,7 +6107,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="66">
+    <row customHeight="1" ht="49.95" r="66" s="28">
       <c r="A66" t="n">
         <v>65</v>
       </c>
@@ -5882,7 +6145,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="67">
+    <row customHeight="1" ht="49.95" r="67" s="28">
       <c r="A67" t="n">
         <v>66</v>
       </c>
@@ -5920,7 +6183,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="68">
+    <row customHeight="1" ht="49.95" r="68" s="28">
       <c r="A68" t="n">
         <v>67</v>
       </c>
@@ -5954,7 +6217,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="69">
+    <row customHeight="1" ht="49.95" r="69" s="28">
       <c r="A69" t="n">
         <v>68</v>
       </c>
@@ -5992,7 +6255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="70">
+    <row customHeight="1" ht="49.95" r="70" s="28">
       <c r="A70" t="n">
         <v>69</v>
       </c>
@@ -6030,7 +6293,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="71">
+    <row customHeight="1" ht="49.95" r="71" s="28">
       <c r="A71" t="n">
         <v>70</v>
       </c>
@@ -6068,7 +6331,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="72">
+    <row customHeight="1" ht="49.95" r="72" s="28">
       <c r="A72" t="n">
         <v>71</v>
       </c>
@@ -6106,7 +6369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="73">
+    <row customHeight="1" ht="49.95" r="73" s="28">
       <c r="A73" t="n">
         <v>72</v>
       </c>
@@ -6144,7 +6407,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="74">
+    <row customHeight="1" ht="49.95" r="74" s="28">
       <c r="A74" t="n">
         <v>73</v>
       </c>
@@ -6182,7 +6445,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="75">
+    <row customHeight="1" ht="49.95" r="75" s="28">
       <c r="A75" t="n">
         <v>74</v>
       </c>
@@ -6220,7 +6483,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="76">
+    <row customHeight="1" ht="49.95" r="76" s="28">
       <c r="A76" t="n">
         <v>75</v>
       </c>
@@ -6254,7 +6517,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="77">
+    <row customHeight="1" ht="49.95" r="77" s="28">
       <c r="A77" t="n">
         <v>76</v>
       </c>
@@ -6292,7 +6555,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="78">
+    <row customHeight="1" ht="49.95" r="78" s="28">
       <c r="A78" t="n">
         <v>77</v>
       </c>
@@ -6330,7 +6593,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="79">
+    <row customHeight="1" ht="49.95" r="79" s="28">
       <c r="A79" t="n">
         <v>78</v>
       </c>
@@ -6368,7 +6631,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="80">
+    <row customHeight="1" ht="49.95" r="80" s="28">
       <c r="A80" t="n">
         <v>79</v>
       </c>
@@ -6406,7 +6669,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="81">
+    <row customHeight="1" ht="49.95" r="81" s="28">
       <c r="A81" t="n">
         <v>80</v>
       </c>
@@ -6444,7 +6707,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="82">
+    <row customHeight="1" ht="49.95" r="82" s="28">
       <c r="A82" t="n">
         <v>81</v>
       </c>
@@ -6482,7 +6745,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="83">
+    <row customHeight="1" ht="49.95" r="83" s="28">
       <c r="A83" t="n">
         <v>82</v>
       </c>
@@ -6520,7 +6783,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="84">
+    <row customHeight="1" ht="49.95" r="84" s="28">
       <c r="A84" t="n">
         <v>83</v>
       </c>
@@ -6554,7 +6817,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="85">
+    <row customHeight="1" ht="49.95" r="85" s="28">
       <c r="A85" t="n">
         <v>84</v>
       </c>
@@ -6592,7 +6855,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="86">
+    <row customHeight="1" ht="49.95" r="86" s="28">
       <c r="A86" t="n">
         <v>85</v>
       </c>
@@ -6630,7 +6893,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="87">
+    <row customHeight="1" ht="49.95" r="87" s="28">
       <c r="A87" t="n">
         <v>86</v>
       </c>
@@ -6668,7 +6931,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="88">
+    <row customHeight="1" ht="49.95" r="88" s="28">
       <c r="A88" t="n">
         <v>87</v>
       </c>
@@ -6706,7 +6969,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="89">
+    <row customHeight="1" ht="49.95" r="89" s="28">
       <c r="A89" t="n">
         <v>88</v>
       </c>
@@ -6744,7 +7007,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="90">
+    <row customHeight="1" ht="49.95" r="90" s="28">
       <c r="A90" t="n">
         <v>89</v>
       </c>
@@ -6782,7 +7045,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="91">
+    <row customHeight="1" ht="49.95" r="91" s="28">
       <c r="A91" t="n">
         <v>90</v>
       </c>
@@ -6820,7 +7083,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="92">
+    <row customHeight="1" ht="49.95" r="92" s="28">
       <c r="A92" t="n">
         <v>91</v>
       </c>
@@ -6858,7 +7121,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="93">
+    <row customHeight="1" ht="49.95" r="93" s="28">
       <c r="A93" t="n">
         <v>92</v>
       </c>
@@ -6896,7 +7159,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="94">
+    <row customHeight="1" ht="49.95" r="94" s="28">
       <c r="A94" t="n">
         <v>93</v>
       </c>
@@ -6934,7 +7197,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="95">
+    <row customHeight="1" ht="49.95" r="95" s="28">
       <c r="A95" t="n">
         <v>94</v>
       </c>
@@ -6972,7 +7235,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="96">
+    <row customHeight="1" ht="49.95" r="96" s="28">
       <c r="A96" t="n">
         <v>95</v>
       </c>
@@ -7010,7 +7273,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="97">
+    <row customHeight="1" ht="49.95" r="97" s="28">
       <c r="A97" t="n">
         <v>96</v>
       </c>
@@ -7048,7 +7311,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="98">
+    <row customHeight="1" ht="49.95" r="98" s="28">
       <c r="A98" t="n">
         <v>97</v>
       </c>
@@ -7086,7 +7349,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="99">
+    <row customHeight="1" ht="49.95" r="99" s="28">
       <c r="A99" t="n">
         <v>98</v>
       </c>
@@ -7124,7 +7387,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="100">
+    <row customHeight="1" ht="49.95" r="100" s="28">
       <c r="A100" t="n">
         <v>99</v>
       </c>
@@ -7162,7 +7425,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="101">
+    <row customHeight="1" ht="49.95" r="101" s="28">
       <c r="A101" t="n">
         <v>100</v>
       </c>
@@ -7200,7 +7463,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="102">
+    <row customHeight="1" ht="49.95" r="102" s="28">
       <c r="A102" t="n">
         <v>101</v>
       </c>
@@ -7238,7 +7501,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="103">
+    <row customHeight="1" ht="49.95" r="103" s="28">
       <c r="A103" t="n">
         <v>102</v>
       </c>
@@ -7276,7 +7539,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="104">
+    <row customHeight="1" ht="49.95" r="104" s="28">
       <c r="A104" t="n">
         <v>103</v>
       </c>
@@ -7314,7 +7577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="105">
+    <row customHeight="1" ht="49.95" r="105" s="28">
       <c r="A105" t="n">
         <v>104</v>
       </c>
@@ -7352,7 +7615,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="106">
+    <row customHeight="1" ht="49.95" r="106" s="28">
       <c r="A106" t="n">
         <v>105</v>
       </c>
@@ -7390,7 +7653,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="107">
+    <row customHeight="1" ht="49.95" r="107" s="28">
       <c r="A107" t="n">
         <v>106</v>
       </c>
@@ -7428,7 +7691,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="108">
+    <row customHeight="1" ht="49.95" r="108" s="28">
       <c r="A108" t="n">
         <v>107</v>
       </c>
@@ -7466,7 +7729,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="109">
+    <row customHeight="1" ht="49.95" r="109" s="28">
       <c r="A109" t="n">
         <v>108</v>
       </c>
@@ -7500,7 +7763,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="110">
+    <row customHeight="1" ht="49.95" r="110" s="28">
       <c r="A110" t="n">
         <v>109</v>
       </c>
@@ -7538,7 +7801,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="111">
+    <row customHeight="1" ht="49.95" r="111" s="28">
       <c r="A111" t="n">
         <v>110</v>
       </c>
@@ -7576,7 +7839,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="112">
+    <row customHeight="1" ht="49.95" r="112" s="28">
       <c r="A112" t="n">
         <v>111</v>
       </c>
@@ -7614,7 +7877,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="113">
+    <row customHeight="1" ht="49.95" r="113" s="28">
       <c r="A113" t="n">
         <v>112</v>
       </c>
@@ -7652,7 +7915,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="114">
+    <row customHeight="1" ht="49.95" r="114" s="28">
       <c r="A114" t="n">
         <v>113</v>
       </c>
@@ -7686,7 +7949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="115">
+    <row customHeight="1" ht="49.95" r="115" s="28">
       <c r="A115" t="n">
         <v>114</v>
       </c>
@@ -7724,7 +7987,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="116">
+    <row customHeight="1" ht="49.95" r="116" s="28">
       <c r="A116" t="n">
         <v>115</v>
       </c>
@@ -7762,7 +8025,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="117">
+    <row customHeight="1" ht="61.95" r="117" s="28">
       <c r="A117" t="n">
         <v>116</v>
       </c>
@@ -7808,7 +8071,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="118">
+    <row customHeight="1" ht="61.95" r="118" s="28">
       <c r="A118" t="n">
         <v>117</v>
       </c>
@@ -7854,7 +8117,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="119">
+    <row customHeight="1" ht="49.95" r="119" s="28">
       <c r="A119" t="n">
         <v>118</v>
       </c>

--- a/data/daily_c2/call_apicases_daily.xlsx
+++ b/data/daily_c2/call_apicases_daily.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_call_queue" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="test_call_sheet (2)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -50,12 +50,6 @@
       <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -120,19 +114,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -190,7 +175,6 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -205,6 +189,16 @@
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,22 +540,22 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="8.109375"/>
-    <col customWidth="1" max="2" min="2" style="28" width="8.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="38.109375"/>
-    <col customWidth="1" max="4" min="4" style="28" width="25.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="8.44140625"/>
-    <col customWidth="1" max="6" min="6" style="28" width="63.44140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
-    <col customWidth="1" max="8" min="8" style="28" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.77734375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="28" width="13.5546875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="32" width="8.109375"/>
+    <col customWidth="1" max="2" min="2" style="32" width="8.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="32" width="38.109375"/>
+    <col customWidth="1" max="4" min="4" style="32" width="25.44140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="32" width="8.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="41.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="32" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="32" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="32" width="13.5546875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="32" width="34.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -570,7 +564,7 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>target</t>
         </is>
@@ -600,47 +594,47 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="100.8" r="2" s="28">
-      <c r="A2" s="5" t="n">
+      <c r="J1" s="29" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="100.8" r="2" s="32">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>queue</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>新增队列</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="30" t="inlineStr">
         <is>
           <t>{
     "name": "自动化测试队列请勿操作",
@@ -691,89 +685,89 @@
 }</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>{"status":500,"message":"页面请求有点小问题，请联系管理员"}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="33" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
+      <c r="J2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>queue?qno=0211&amp;offset=0&amp;limit=10</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>查询队列列表</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="F3" s="30" t="n"/>
+      <c r="G3" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="73.2" r="4" s="28">
-      <c r="A4" s="5" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>[{"queue_id":"result.data[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="73.2" r="4" s="32">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>queue/#queue_id#</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>更新队列</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="30" t="inlineStr">
         <is>
           <t>{
     "name": "自动化测试队列请勿操作New",
@@ -824,129 +818,126 @@
 }</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="33" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
+      <c r="J4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>queue/#queue_id#</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>查询队列详情</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="F5" s="30" t="n"/>
+      <c r="G5" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>monitor/queue?type=0</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>队列状态监控</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="F6" s="30" t="n"/>
+      <c r="G6" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>queue/#queue_id#</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>删除队列</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="30" t="inlineStr">
         <is>
           <t>{"status_code":200}</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -964,39 +955,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="8"/>
-    <col customWidth="1" max="3" min="3" style="31" width="24"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="35.88671875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="31" width="8.21875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="38.21875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.77734375"/>
-    <col customWidth="1" max="8" min="8" style="28" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.5546875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="28" width="13"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="28" width="34.5546875"/>
+    <col customWidth="1" max="1" min="1" style="3" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="8"/>
+    <col customWidth="1" max="3" min="3" style="27" width="38.88671875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="32" width="35.88671875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="27" width="8.21875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="38.21875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="32" width="20.77734375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="32" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="32" width="13"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="32" width="34.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1" s="28">
-      <c r="A1" s="23" t="inlineStr">
+    <row customHeight="1" ht="13.05" r="1" s="32">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
@@ -1006,7 +996,7 @@
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>method</t>
         </is>
@@ -1016,102 +1006,96 @@
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="27" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="J1" s="29" t="inlineStr">
         <is>
           <t>jsonpath_exp_save</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2" s="28">
-      <c r="A2" s="24" t="n">
+    <row customHeight="1" ht="41.4" r="2" s="32">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>queue/all</t>
         </is>
       </c>
-      <c r="D2" s="21" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t>查询可选择队列</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F2" s="18" t="n"/>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="18" t="n"/>
-      <c r="I2" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J2" s="18" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>[{"queueId":"$.result[0].'id'"}]</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="230.4" r="3" s="28">
-      <c r="A3" s="24" t="n">
+      <c r="F2" s="15" t="n"/>
+      <c r="G2" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>[{"queueId":"result[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.4" r="3" s="32">
+      <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>client</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>新增座席成功</t>
         </is>
       </c>
-      <c r="E3" s="31" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="30" t="inlineStr">
         <is>
           <t>{
     "type": 1,
@@ -1243,99 +1227,93 @@
 }</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>{"status":400,"message":"座席已存在"}</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J3" s="24" t="inlineStr">
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="76.8" r="4" s="28">
-      <c r="A4" s="24" t="n">
+    <row customHeight="1" ht="41.4" r="4" s="32">
+      <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>client?cnoOrName=#client_daily_cno#&amp;queueId=#queueId#&amp;offset=0&amp;limit=10</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>查询座席列表成功（按照队列查询）</t>
         </is>
       </c>
-      <c r="E4" s="30" t="inlineStr">
+      <c r="E4" s="26" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="12" t="n"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J4" s="24" t="n"/>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>[{"clientId": "$.result['data'][0][id]"}]</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="87.59999999999999" r="5" s="28">
-      <c r="A5" s="24" t="n">
+      <c r="F4" s="30" t="n"/>
+      <c r="G4" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="21" t="n"/>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>[{"clientId": "result.data[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="5" s="32">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>client/#clientId#</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>更新座席成功</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="30" t="inlineStr">
         <is>
           <t>{
     "type": 1,
@@ -1467,64 +1445,651 @@
 }</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="n"/>
-      <c r="I5" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J5" s="24" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="60" r="6" s="28">
-      <c r="A6" s="24" t="n">
+    <row customHeight="1" ht="18" r="6" s="32">
+      <c r="A6" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>console</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>client/#clientId#</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>查询座席详情成功</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
+      <c r="E6" s="27" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F6" s="20" t="n"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H6" s="12" t="n"/>
-      <c r="I6" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J6" s="24" t="n"/>
+      <c r="F6" s="17" t="n"/>
+      <c r="G6" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="96.59999999999999" r="7" s="32">
+      <c r="A7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>exten</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>新建软电话</t>
+        </is>
+      </c>
+      <c r="E7" s="26" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>{
+    "extenNumber": "#daily_phone#",
+    "areaCode": "025",
+    "allow": "myopus,alaw,ulaw",
+    "type": 2,
+    "expiresTime": 600
+}</t>
+        </is>
+      </c>
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="8" s="32">
+      <c r="A8" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>client_tel/#daily_phone#/checkValidate</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>校验话机是否存在</t>
+        </is>
+      </c>
+      <c r="E8" s="26" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="45" r="9" s="32">
+      <c r="A9" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>client_tel</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>绑定话机成功</t>
+        </is>
+      </c>
+      <c r="E9" s="26" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="30" t="inlineStr">
+        <is>
+          <t>{
+    "tel": "#daily_phone#",
+    "clientId": #clientId#,
+    "bind": 1
+}</t>
+        </is>
+      </c>
+      <c r="G9" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="10" s="32">
+      <c r="A10" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C10" s="23" t="inlineStr">
+        <is>
+          <t>monitor/client?offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>呼叫中心座席状态监控</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F10" s="30" t="n"/>
+      <c r="G10" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="37.2" r="11" s="32">
+      <c r="A11" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C11" s="23" t="inlineStr">
+        <is>
+          <t>client/loginOrLogout</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>座席上线</t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F11" s="30" t="inlineStr">
+        <is>
+          <t>{
+"clientId": #clientId#,
+"loginOrLogout": 1
+}</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="12" s="32">
+      <c r="A12" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C12" s="26" t="inlineStr">
+        <is>
+          <t>client/loginOrLogout</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>座席下线</t>
+        </is>
+      </c>
+      <c r="E12" s="26" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F12" s="30" t="inlineStr">
+        <is>
+          <t>{
+"clientId": #clientId#,
+"loginOrLogout": 0
+}</t>
+        </is>
+      </c>
+      <c r="G12" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="13" s="32">
+      <c r="A13" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>client_tel/unbind</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>解绑话机成功</t>
+        </is>
+      </c>
+      <c r="E13" s="26" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F13" s="30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+{
+    "clientIds": [#clientId#]
+}</t>
+        </is>
+      </c>
+      <c r="G13" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="14" s="32">
+      <c r="A14" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C14" s="26" t="inlineStr">
+        <is>
+          <t>client_tel/all?clientId=#clientId#</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>查询座席下的话机（获取id）</t>
+        </is>
+      </c>
+      <c r="E14" s="26" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F14" s="30" t="n"/>
+      <c r="G14" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>[{"bindtel_id":"result[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="39.6" r="15" s="32">
+      <c r="A15" s="21" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C15" s="26" t="inlineStr">
+        <is>
+          <t>client_tel/#bindtel_id#</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>删除座席电话成功</t>
+        </is>
+      </c>
+      <c r="E15" s="26" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F15" s="30" t="n"/>
+      <c r="G15" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.4" r="16" s="32">
+      <c r="A16" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>client/#clientId#</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>删除座席成功</t>
+        </is>
+      </c>
+      <c r="E16" s="26" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F16" s="30" t="n"/>
+      <c r="G16" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="17" s="32">
+      <c r="A17" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C17" s="22" t="inlineStr">
+        <is>
+          <t>exten?extenNumber=#daily_phone#&amp;offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>查询话机列表(获取话机id)</t>
+        </is>
+      </c>
+      <c r="E17" s="26" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F17" s="30" t="n"/>
+      <c r="G17" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H17" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I17" s="33" t="n"/>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>[{"phone_id":"result.data[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="96.59999999999999" r="18" s="32">
+      <c r="A18" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>exten/#phone_id#</t>
+        </is>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>修改话机</t>
+        </is>
+      </c>
+      <c r="E18" s="26" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F18" s="17" t="inlineStr">
+        <is>
+          <t>{
+    "id":#phone_id#,
+    "areaCode": "025",
+    "allow": "myopus,alaw,ulaw",
+    "type": 2,
+    "expiresTime": "500"
+}</t>
+        </is>
+      </c>
+      <c r="G18" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="19" s="32">
+      <c r="A19" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C19" s="22" t="inlineStr">
+        <is>
+          <t>exten/#phone_id#?id=#phone_id#</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>删除话机</t>
+        </is>
+      </c>
+      <c r="E19" s="26" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F19" s="30" t="n"/>
+      <c r="G19" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1538,662 +2103,184 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD15"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="8.109375"/>
-    <col customWidth="1" max="2" min="2" style="28" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" style="28" width="25.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="8.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="12.88671875"/>
-    <col customWidth="1" max="6" min="6" style="28" width="35.33203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="32" width="8.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="32" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="32" width="32.44140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="32" width="22.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="32" width="12.88671875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="9.44140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="32" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="32" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="32" width="8.109375"/>
+    <col customWidth="1" max="10" min="10" style="32" width="31"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="13.05" r="1" s="32">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="2" s="28">
-      <c r="A2" s="5" t="n">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="2" s="32">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>list_ivrs</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>ivr/listByCondition?limit=10&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>成功查询语音导航列表</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="27" t="inlineStr">
+        <is>
+          <t>{"type":1}</t>
+        </is>
+      </c>
+      <c r="G2" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J2" s="31" t="inlineStr">
+        <is>
+          <t>[{"ivrId":"result.data[0].id"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="3" s="32">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>ivr/#ivrId#</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>成功查询语音导航节点列表</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="3" s="28">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>list_ivr_nodes</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>成功查询语音导航节点列表</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>ivrId=#ivrID#</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="58.8" r="7" s="28"/>
-    <row customHeight="1" ht="41.4" r="8" s="28"/>
-    <row customHeight="1" ht="135" r="9" s="28"/>
-    <row customHeight="1" ht="41.4" r="10" s="28"/>
-    <row customHeight="1" ht="84.59999999999999" r="11" s="28">
-      <c r="A11" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>exten</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>新建软电话</t>
-        </is>
-      </c>
-      <c r="E11" s="30" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "extenNumber": "#daily_phone#",
-    "areaCode": "025",
-    "allow": "myopus,alaw,ulaw",
-    "type": 2,
-    "expiresTime": 600
-}</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I11" s="12" t="n"/>
-      <c r="J11" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="71.40000000000001" r="12" s="28">
-      <c r="A12" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C12" s="25" t="inlineStr">
-        <is>
-          <t>client_tel</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>绑定话机成功</t>
-        </is>
-      </c>
-      <c r="E12" s="30" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "clientId":"#clientId#",
-    "tel":"#daily_phone#",
-    "bind":1
-}</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I12" s="12" t="n"/>
-      <c r="J12" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="64.8" r="13" s="28">
-      <c r="A13" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C13" s="26" t="inlineStr">
-        <is>
-          <t>monitor/client?offset=0&amp;limit=10</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>呼叫中心座席状态监控</t>
-        </is>
-      </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="66" r="14" s="28">
-      <c r="A14" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C14" s="26" t="inlineStr">
-        <is>
-          <t>client/loginOrLogout</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>座席上线</t>
-        </is>
-      </c>
-      <c r="E14" s="30" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>{
-"clientId": #clientId#,
-"loginOrLogout": 1
-}</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="66.59999999999999" r="15" s="28">
-      <c r="A15" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C15" s="30" t="inlineStr">
-        <is>
-          <t>client/loginOrLogout</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>座席下线</t>
-        </is>
-      </c>
-      <c r="E15" s="30" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>{
-"clientId": #clientId#,
-"loginOrLogout": 0
-}</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="234.6" r="16" s="28">
-      <c r="A16" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>解绑话机成功</t>
-        </is>
-      </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I16" s="12" t="inlineStr">
-        <is>
-          <t>{"requestId":"6b2ddb82-40b1-9aa4-aca0-16167303a210","error":{"code":"ClientOnline","message":"座席在线不能解绑座席"}}</t>
-        </is>
-      </c>
-      <c r="J16" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="17" s="28">
-      <c r="A17" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C17" s="26" t="n"/>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>删除座席电话成功</t>
-        </is>
-      </c>
-      <c r="E17" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#",
-    "tel":"#daily_phone#"
-}</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I17" s="12" t="n"/>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="248.4" r="18" s="28">
-      <c r="A18" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>删除座席成功</t>
-        </is>
-      </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I18" s="12" t="inlineStr">
-        <is>
-          <t>{"requestId":"a1466514-7413-9441-824a-399b2d38e871","error":{"code":"ClientOnline","message":"座席号在线中不允许删除"}}</t>
-        </is>
-      </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="289.8" r="19" s="28">
-      <c r="A19" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="13" t="inlineStr">
-        <is>
-          <t>修改话机</t>
-        </is>
-      </c>
-      <c r="E19" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
-        <is>
-          <t>{
-            "extenNumber": (None, "#daily_phone#"),
-            "password": (None, "123456"),
-            "areaCode": (None, "025"),
-            "type": (None, 2),
-            "allow": (None, 6)
-}</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I19" s="12" t="inlineStr">
-        <is>
-          <t>{"requestId":"0f019bf7-47f5-9110-9fd8-a691643da272","error":{"code":"InternalError","message":"服务内部错误，请稍后再试，或联系技术支持"}}</t>
-        </is>
-      </c>
-      <c r="J19" s="13" t="inlineStr">
-        <is>
-          <t>form-data</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="20" s="28">
-      <c r="A20" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>查询话机详情</t>
-        </is>
-      </c>
-      <c r="E20" s="30" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>extenNumber=#daily_phone#</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I20" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.4" r="21" s="28">
-      <c r="A21" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>查询话机列表</t>
-        </is>
-      </c>
-      <c r="E21" s="30" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>areaCode=010&amp;limit=10&amp;offset=0&amp;type=2</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="55.2" r="22" s="28">
-      <c r="A22" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>console</t>
-        </is>
-      </c>
-      <c r="C22" s="30" t="n"/>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>删除话机</t>
-        </is>
-      </c>
-      <c r="E22" s="31" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>{
- "extenNumber": (None, "#daily_phone#")
-}</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="inlineStr">
-        <is>
-          <t>form-data</t>
-        </is>
-      </c>
-    </row>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="58.8" r="7" s="32"/>
+    <row customHeight="1" ht="41.4" r="8" s="32"/>
+    <row customHeight="1" ht="135" r="9" s="32"/>
+    <row customHeight="1" ht="41.4" r="10" s="32"/>
+    <row customHeight="1" ht="84.59999999999999" r="11" s="32"/>
+    <row customHeight="1" ht="71.40000000000001" r="12" s="32"/>
+    <row customHeight="1" ht="64.8" r="13" s="32"/>
+    <row customHeight="1" ht="66" r="14" s="32"/>
+    <row customHeight="1" ht="66.59999999999999" r="15" s="32"/>
+    <row customHeight="1" ht="234.6" r="16" s="32"/>
+    <row customHeight="1" ht="55.2" r="17" s="32"/>
+    <row customHeight="1" ht="248.4" r="18" s="32"/>
+    <row customHeight="1" ht="289.8" r="19" s="32"/>
+    <row customHeight="1" ht="41.4" r="20" s="32"/>
+    <row customHeight="1" ht="41.4" r="21" s="32"/>
+    <row customHeight="1" ht="55.2" r="22" s="32"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2205,205 +2292,190 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="28" width="6.44140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="13"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="31.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="28" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="28" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="28" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="32" width="6.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="32" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="32" width="21.21875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="32" width="38"/>
+    <col customWidth="1" max="5" min="5" style="32" width="9.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="38.44140625"/>
+    <col customWidth="1" max="7" min="7" style="32" width="23.5546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="32" width="9.88671875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="32" width="7.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1" s="28">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="13.05" r="1" s="32">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="69" r="2" s="28">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="78.59999999999999" r="2" s="32">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sms_send</t>
+          <t>console</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>发送短信成功</t>
+          <t>sms_group_send/send</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>管理员发送短信成功</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
-   "cno":"1089",   
-   "tel":"#daily_sms_phone#",
-   "content":"您的余额不足，请充值"
-}</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>sms</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>{"requestId":"c5abea96-9837-9bb4-aebe-0fae7e7094e7","error":{"code":"SmsSendFailure","message":"未知错误"}}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="69" r="3" s="28">
+      <c r="F2" s="30" t="inlineStr">
+        <is>
+          <t>{
+    "receiver": [
+        {
+            "name": "",
+            "tel": "#daily_sms_phone#",
+            "id": null
+        }
+    ],
+    "content": "您的余额不足",
+    "sendType": 1,
+    "sendTime": null
+}</t>
+        </is>
+      </c>
+      <c r="G2" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="33" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="89.40000000000001" r="3" s="32">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sms_send</t>
+          <t>console</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>发送短信失败（手机号码超长）</t>
+          <t>sms_group_send/send</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>管理员发送短信失败（手机号码超长）</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"1089", 
-    "tel":"13201646126123",
-    "content":"您的余额不足，请充值容"
-}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sms</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 400
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.95" r="4" s="28">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>phone_status</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>手机号码状态检测成功</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>tel=13212344321</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="F3" s="30" t="inlineStr">
+        <is>
+          <t>{
+    "receiver": [
+        {
+            "name": "",
+            "tel": "1454545454545",
+            "id": null
+        }
+    ],
+    "content": "您的余额不足",
+    "sendType": 1,
+    "sendTime": null
+}</t>
+        </is>
+      </c>
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="33" t="inlineStr">
+        <is>
+          <t>json</t>
         </is>
       </c>
     </row>
@@ -2418,352 +2490,575 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="21.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="25.109375"/>
-    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" style="28" width="28.44140625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="28" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" style="28" width="21.5546875"/>
+    <col customWidth="1" max="1" min="1" style="32" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="32" width="8"/>
+    <col customWidth="1" max="3" min="3" style="32" width="33.21875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="32" width="30.33203125"/>
+    <col customWidth="1" max="5" min="5" style="32" width="7.44140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="31.109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="32" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="32" width="6.21875"/>
+    <col customWidth="1" max="9" min="9" style="32" width="8.44140625"/>
+    <col customWidth="1" max="10" min="10" style="32" width="48.6640625"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="13.05" r="1" s="32">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>content-type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="42.6" r="2" s="28">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="2" s="32">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>list_cdr_ibs</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>cdr?offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>查询呼入通话记录列表</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="3" s="28">
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="30" t="inlineStr">
+        <is>
+          <t>{
+    "cdrType": "ib",
+    "startTime": "#startTime#",
+    "startTimeEnd": "#endTime#",
+    "advanced": false
+}</t>
+        </is>
+      </c>
+      <c r="G2" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="30" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J2" s="30" t="inlineStr">
+        <is>
+          <t>[{"mainUniqueId":"result.data[0].mainUniqueId"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="3" s="32">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>describe_cdr_ib</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>查询呼入通话记录</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>cdr_detail/#mainUniqueId#</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>查询呼入通话记录-呼叫坐席</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>mainUniqueId=#IbUniqueId#</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="4" s="28">
+      <c r="F3" s="30" t="n"/>
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="4" s="32">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>describe_cdr_ib_details</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>查看呼入通话记录明细</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>cdr_investigation/#mainUniqueId#</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>查询呼入通话记录-满意度调查</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>mainUniqueId=#IbUniqueId#</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="5" s="28">
+      <c r="F4" s="30" t="n"/>
+      <c r="G4" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="5" s="32">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>list_cdr_obs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>查询外呼通话记录列表</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>cdr_ivr/#mainUniqueId#</t>
+        </is>
+      </c>
+      <c r="D5" s="30" t="inlineStr">
+        <is>
+          <t>查询呼入通话记录-路由和ivr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="6" s="28">
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="6" s="32">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>describe_cdr_ob</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>查看外呼通话记录</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C6" s="30" t="inlineStr">
+        <is>
+          <t>video_record?offset=0&amp;limit=100&amp;sceneId=#mainUniqueId#</t>
+        </is>
+      </c>
+      <c r="D6" s="30" t="inlineStr">
+        <is>
+          <t>查询呼入通话记录-视频记录</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>mainUniqueId=#ObUniqueId#</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="7" s="28">
+      <c r="F6" s="30" t="n"/>
+      <c r="G6" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="82.8" r="7" s="32">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>describe_cdr_ob_details</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>查看外呼通话记录明细</t>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>cdr?offset=0&amp;limit=10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>mainUniqueId=#ObUniqueId#</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="8" s="28">
+          <t>查询外呼通话记录列表</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="30" t="inlineStr">
+        <is>
+          <t>{
+    "cdrType": "ob",
+    "startTime": "#startTime#",
+    "startTimeEnd": "#endTime#",
+    "advanced": false
+}</t>
+        </is>
+      </c>
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="30" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J7" s="30" t="inlineStr">
+        <is>
+          <t>[{"mainUniqueId_ob":"result.data[0].mainUniqueId"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="8" s="32">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>list_comments</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>查询留言记录列表</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>cdr_detail/#mainUniqueId_ob#</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>查询外呼通话记录-呼叫坐席</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="9" s="28">
+      <c r="G8" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="9" s="32">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>list_investigations</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C9" s="30" t="inlineStr">
+        <is>
+          <t>cdr_investigation/#mainUniqueId_ob#</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>查询外呼通话记录-满意度调查</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G9" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="10" s="32">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>cdr_ivr/#mainUniqueId_ob#</t>
+        </is>
+      </c>
+      <c r="D10" s="30" t="inlineStr">
+        <is>
+          <t>查询外呼通话记录-路由和ivr</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G10" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="11" s="32">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C11" s="30" t="inlineStr">
+        <is>
+          <t>video_record?offset=0&amp;limit=100&amp;sceneId=#mainUniqueId_ob#</t>
+        </is>
+      </c>
+      <c r="D11" s="30" t="inlineStr">
+        <is>
+          <t>查询外呼通话记录-视频记录</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="82.8" r="12" s="32">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C12" s="30" t="inlineStr">
+        <is>
+          <t>cdr_investigation/list?offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>查询满意度记录列表</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F12" s="30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+{
+    "cdrType": "all",
+    "startTime": "#startTime#",
+    "endTime": "#endTime#"
+}</t>
+        </is>
+      </c>
+      <c r="G12" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="13" s="32">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="C13" s="30" t="inlineStr">
+        <is>
+          <t>comment?endTime=1636646399&amp;startTime=1636560000&amp;offset=0&amp;limit=10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>查询留言记录列表</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
+      <c r="G13" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2781,23 +3076,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="28" width="28"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="28" width="30"/>
-    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" style="28" width="47.109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="28" width="13"/>
-    <col customWidth="1" max="7" min="7" style="28" width="18.44140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="28" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" style="28" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" style="32" width="6.77734375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="32" width="28"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="32" width="30"/>
+    <col customWidth="1" max="4" min="4" style="32" width="7.44140625"/>
+    <col customWidth="1" max="5" min="5" style="32" width="47.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="32" width="13"/>
+    <col customWidth="1" max="7" min="7" style="32" width="18.44140625"/>
+    <col customWidth="1" max="8" min="8" style="32" width="6.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2836,82 +3130,76 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.6" r="2" s="28">
+    <row customHeight="1" ht="42.6" r="2" s="32">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>stat_client_status</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>座席状态报表</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="3" s="28">
+      <c r="G2" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="3" s="32">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>stat_client_workload</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>座席工作量报表</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2919,45 +3207,44 @@
 }</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="4" s="28">
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="4" s="32">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>stat_queue</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>队列报表</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="16" t="inlineStr">
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2965,45 +3252,44 @@
 }</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="5" s="28">
+      <c r="G4" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="5" s="32">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>stat_hotline_ib</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>呼入报表-来电统计</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -3011,45 +3297,44 @@
 }</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="6" s="28">
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="6" s="32">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>stat_preview_ob</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>预览外呼报表</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -3057,45 +3342,44 @@
 }</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="7" s="28">
+      <c r="G6" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="7" s="32">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>stat_investigation_by_cno</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>满意度报表按座席统计</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -3103,45 +3387,44 @@
 }</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="8" s="28">
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="8" s="32">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>stat_investigation_by_hotlines</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>满意度报表按热线号码统计</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="16" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -3149,45 +3432,44 @@
 }</t>
         </is>
       </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.2" r="9" s="28">
+      <c r="G8" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.2" r="9" s="32">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>stat_ivr_list</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>IVR统计报表</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -3195,65 +3477,63 @@
 }</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="10" s="28">
+      <c r="G9" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="10" s="32">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>stat_ivr_nodes</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>IVR节点统计报表</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="16" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" t="inlineStr">
+      <c r="G10" s="33" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -3274,22 +3554,22 @@
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:H59"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" style="28" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" style="28" width="39.77734375"/>
-    <col customWidth="1" max="4" min="4" style="28" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" style="28" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" style="28" width="29.88671875"/>
-    <col customWidth="1" max="7" min="7" style="28" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" style="28" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" style="32" width="6.77734375"/>
+    <col customWidth="1" max="2" min="2" style="32" width="24.6640625"/>
+    <col customWidth="1" max="3" min="3" style="32" width="39.77734375"/>
+    <col customWidth="1" max="4" min="4" style="32" width="7.44140625"/>
+    <col customWidth="1" max="5" min="5" style="32" width="63.44140625"/>
+    <col customWidth="1" max="6" min="6" style="32" width="29.88671875"/>
+    <col customWidth="1" max="7" min="7" style="32" width="18.44140625"/>
+    <col customWidth="1" max="8" min="8" style="32" width="6.33203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1" s="28">
+    <row customHeight="1" ht="13.05" r="1" s="32">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -3331,7 +3611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2" s="28">
+    <row customHeight="1" ht="41.4" r="2" s="32">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -3350,19 +3630,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3375,7 +3655,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3" s="28">
+    <row customHeight="1" ht="49.95" r="3" s="32">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -3394,19 +3674,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -3419,7 +3699,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4" s="28">
+    <row customHeight="1" ht="49.95" r="4" s="32">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3438,19 +3718,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3463,7 +3743,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5" s="28">
+    <row customHeight="1" ht="49.95" r="5" s="32">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -3482,7 +3762,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -3490,12 +3770,12 @@
 }</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3508,7 +3788,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6" s="28">
+    <row customHeight="1" ht="49.95" r="6" s="32">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -3527,7 +3807,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -3535,12 +3815,12 @@
 }</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3553,7 +3833,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7" s="28">
+    <row customHeight="1" ht="49.95" r="7" s="32">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -3572,7 +3852,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -3580,12 +3860,12 @@
 }</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3598,7 +3878,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="8" s="28">
+    <row customHeight="1" ht="49.95" r="8" s="32">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -3617,19 +3897,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3642,7 +3922,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="9" s="28">
+    <row customHeight="1" ht="49.95" r="9" s="32">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -3661,7 +3941,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830"),
@@ -3669,12 +3949,12 @@
 }</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3687,7 +3967,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="10" s="28">
+    <row customHeight="1" ht="49.95" r="10" s="32">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -3706,7 +3986,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -3714,12 +3994,12 @@
 }</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3732,7 +4012,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="11" s="28">
+    <row customHeight="1" ht="49.95" r="11" s="32">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -3751,7 +4031,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -3759,12 +4039,12 @@
 }</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3777,7 +4057,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="12" s="28">
+    <row customHeight="1" ht="49.95" r="12" s="32">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -3796,7 +4076,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -3804,12 +4084,12 @@
 }</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3822,7 +4102,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="13" s="28">
+    <row customHeight="1" ht="49.95" r="13" s="32">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -3841,7 +4121,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -3849,12 +4129,12 @@
 }</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3867,7 +4147,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="14" s="28">
+    <row customHeight="1" ht="49.95" r="14" s="32">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -3886,19 +4166,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3911,7 +4191,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="15" s="28">
+    <row customHeight="1" ht="49.95" r="15" s="32">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -3930,7 +4210,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830"),
@@ -3938,12 +4218,12 @@
 }</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -3956,7 +4236,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="16" s="28">
+    <row customHeight="1" ht="49.95" r="16" s="32">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -3975,7 +4255,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -3983,12 +4263,12 @@
 }</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4001,7 +4281,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="17" s="28">
+    <row customHeight="1" ht="49.95" r="17" s="32">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -4020,7 +4300,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4028,12 +4308,12 @@
 }</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4046,7 +4326,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="18" s="28">
+    <row customHeight="1" ht="49.95" r="18" s="32">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -4065,7 +4345,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4073,12 +4353,12 @@
 }</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4091,7 +4371,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="19" s="28">
+    <row customHeight="1" ht="49.95" r="19" s="32">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -4110,7 +4390,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -4118,12 +4398,12 @@
 }</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4136,7 +4416,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="20" s="28">
+    <row customHeight="1" ht="49.95" r="20" s="32">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -4155,19 +4435,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4180,7 +4460,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="21" s="28">
+    <row customHeight="1" ht="49.95" r="21" s="32">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -4199,7 +4479,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830"),
@@ -4207,12 +4487,12 @@
 }</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4225,7 +4505,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="22" s="28">
+    <row customHeight="1" ht="49.95" r="22" s="32">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -4244,7 +4524,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -4252,12 +4532,12 @@
 }</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G22" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4270,7 +4550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="23" s="28">
+    <row customHeight="1" ht="49.95" r="23" s="32">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -4289,7 +4569,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4297,12 +4577,12 @@
 }</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G23" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4315,7 +4595,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="24" s="28">
+    <row customHeight="1" ht="49.95" r="24" s="32">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -4334,7 +4614,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4342,12 +4622,12 @@
 }</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G24" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4360,7 +4640,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="25" s="28">
+    <row customHeight="1" ht="49.95" r="25" s="32">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -4379,19 +4659,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G25" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4404,7 +4684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="26" s="28">
+    <row customHeight="1" ht="49.95" r="26" s="32">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -4423,19 +4703,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -4448,7 +4728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="27" s="28">
+    <row customHeight="1" ht="49.95" r="27" s="32">
       <c r="A27" t="n">
         <v>26</v>
       </c>
@@ -4467,19 +4747,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G27" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4492,7 +4772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="28" s="28">
+    <row customHeight="1" ht="49.95" r="28" s="32">
       <c r="A28" t="n">
         <v>27</v>
       </c>
@@ -4511,7 +4791,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4519,12 +4799,12 @@
 }</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="G28" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4537,7 +4817,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="29" s="28">
+    <row customHeight="1" ht="49.95" r="29" s="32">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -4556,7 +4836,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E29" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4564,12 +4844,12 @@
 }</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G29" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4582,7 +4862,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="30" s="28">
+    <row customHeight="1" ht="49.95" r="30" s="32">
       <c r="A30" t="n">
         <v>29</v>
       </c>
@@ -4601,19 +4881,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4626,7 +4906,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="31" s="28">
+    <row customHeight="1" ht="49.95" r="31" s="32">
       <c r="A31" t="n">
         <v>30</v>
       </c>
@@ -4645,19 +4925,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G31" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -4670,7 +4950,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="32" s="28">
+    <row customHeight="1" ht="49.95" r="32" s="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
@@ -4689,19 +4969,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4714,7 +4994,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="33" s="28">
+    <row customHeight="1" ht="49.95" r="33" s="32">
       <c r="A33" t="n">
         <v>32</v>
       </c>
@@ -4733,7 +5013,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4741,12 +5021,12 @@
 }</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G33" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4759,7 +5039,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="34" s="28">
+    <row customHeight="1" ht="49.95" r="34" s="32">
       <c r="A34" t="n">
         <v>33</v>
       </c>
@@ -4778,7 +5058,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E34" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4786,12 +5066,12 @@
 }</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F34" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G34" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4804,7 +5084,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="35" s="28">
+    <row customHeight="1" ht="49.95" r="35" s="32">
       <c r="A35" t="n">
         <v>34</v>
       </c>
@@ -4823,19 +5103,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E35" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F35" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G35" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4848,7 +5128,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="36" s="28">
+    <row customHeight="1" ht="49.95" r="36" s="32">
       <c r="A36" t="n">
         <v>35</v>
       </c>
@@ -4867,19 +5147,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G36" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -4892,7 +5172,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="37" s="28">
+    <row customHeight="1" ht="49.95" r="37" s="32">
       <c r="A37" t="n">
         <v>36</v>
       </c>
@@ -4911,19 +5191,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4936,7 +5216,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="38" s="28">
+    <row customHeight="1" ht="49.95" r="38" s="32">
       <c r="A38" t="n">
         <v>37</v>
       </c>
@@ -4955,7 +5235,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -4963,12 +5243,12 @@
 }</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -4981,7 +5261,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="39" s="28">
+    <row customHeight="1" ht="49.95" r="39" s="32">
       <c r="A39" t="n">
         <v>38</v>
       </c>
@@ -5000,7 +5280,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -5008,12 +5288,12 @@
 }</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G39" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5026,7 +5306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="40" s="28">
+    <row customHeight="1" ht="49.95" r="40" s="32">
       <c r="A40" t="n">
         <v>39</v>
       </c>
@@ -5045,19 +5325,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G40" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5070,7 +5350,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="41" s="28">
+    <row customHeight="1" ht="49.95" r="41" s="32">
       <c r="A41" t="n">
         <v>40</v>
       </c>
@@ -5089,19 +5369,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E41" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="G41" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -5114,7 +5394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="42" s="28">
+    <row customHeight="1" ht="49.95" r="42" s="32">
       <c r="A42" t="n">
         <v>41</v>
       </c>
@@ -5133,19 +5413,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5158,7 +5438,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="43" s="28">
+    <row customHeight="1" ht="49.95" r="43" s="32">
       <c r="A43" t="n">
         <v>42</v>
       </c>
@@ -5177,19 +5457,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G43" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5202,7 +5482,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="44" s="28">
+    <row customHeight="1" ht="49.95" r="44" s="32">
       <c r="A44" t="n">
         <v>43</v>
       </c>
@@ -5221,19 +5501,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="G44" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -5246,7 +5526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="45" s="28">
+    <row customHeight="1" ht="49.95" r="45" s="32">
       <c r="A45" t="n">
         <v>44</v>
       </c>
@@ -5265,19 +5545,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="G45" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5290,7 +5570,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="46" s="28">
+    <row customHeight="1" ht="49.95" r="46" s="32">
       <c r="A46" t="n">
         <v>45</v>
       </c>
@@ -5309,7 +5589,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -5317,12 +5597,12 @@
 }</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="G46" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5335,7 +5615,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="47" s="28">
+    <row customHeight="1" ht="49.95" r="47" s="32">
       <c r="A47" t="n">
         <v>46</v>
       </c>
@@ -5354,7 +5634,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -5362,12 +5642,12 @@
 }</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G47" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5380,7 +5660,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="48" s="28">
+    <row customHeight="1" ht="49.95" r="48" s="32">
       <c r="A48" t="n">
         <v>47</v>
       </c>
@@ -5399,7 +5679,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -5407,12 +5687,12 @@
 }</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="G48" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5425,7 +5705,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="49" s="28">
+    <row customHeight="1" ht="49.95" r="49" s="32">
       <c r="A49" t="n">
         <v>48</v>
       </c>
@@ -5444,7 +5724,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -5452,12 +5732,12 @@
 }</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="G49" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5470,7 +5750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="50" s="28">
+    <row customHeight="1" ht="49.95" r="50" s="32">
       <c r="A50" t="n">
         <v>49</v>
       </c>
@@ -5489,19 +5769,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#")
 }</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5514,7 +5794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="51" s="28">
+    <row customHeight="1" ht="49.95" r="51" s="32">
       <c r="A51" t="n">
         <v>50</v>
       </c>
@@ -5533,19 +5813,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, None)
 }</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G51" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -5558,7 +5838,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="52" s="28">
+    <row customHeight="1" ht="49.95" r="52" s="32">
       <c r="A52" t="n">
         <v>51</v>
       </c>
@@ -5577,19 +5857,19 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "20250830")
 }</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G52" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5602,7 +5882,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="53" s="28">
+    <row customHeight="1" ht="49.95" r="53" s="32">
       <c r="A53" t="n">
         <v>52</v>
       </c>
@@ -5621,7 +5901,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -5629,12 +5909,12 @@
 }</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5647,7 +5927,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="54" s="28">
+    <row customHeight="1" ht="49.95" r="54" s="32">
       <c r="A54" t="n">
         <v>53</v>
       </c>
@@ -5666,7 +5946,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#date#"),
@@ -5674,12 +5954,12 @@
 }</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G54" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5692,7 +5972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="55" s="28">
+    <row customHeight="1" ht="49.95" r="55" s="32">
       <c r="A55" t="n">
         <v>54</v>
       </c>
@@ -5711,7 +5991,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -5719,12 +5999,12 @@
 }</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G55" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5737,7 +6017,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="56" s="28">
+    <row customHeight="1" ht="49.95" r="56" s="32">
       <c r="A56" t="n">
         <v>55</v>
       </c>
@@ -5756,7 +6036,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="33" t="inlineStr">
         <is>
           <t>{
     "date": (None, "#data"),
@@ -5764,12 +6044,12 @@
 }</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="33" t="inlineStr">
         <is>
           <t>x-www-form-urlencoded</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G56" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5782,7 +6062,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="57" s="28">
+    <row customHeight="1" ht="49.95" r="57" s="32">
       <c r="A57" t="n">
         <v>56</v>
       </c>
@@ -5801,7 +6081,7 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="G57" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5814,7 +6094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="58" s="28">
+    <row customHeight="1" ht="49.95" r="58" s="32">
       <c r="A58" t="n">
         <v>57</v>
       </c>
@@ -5838,7 +6118,7 @@
           <t>qnos=0616</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="G58" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5851,7 +6131,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="59" s="28">
+    <row customHeight="1" ht="49.95" r="59" s="32">
       <c r="A59" t="n">
         <v>58</v>
       </c>
@@ -5870,7 +6150,7 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="G59" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -5883,7 +6163,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="60" s="28">
+    <row customHeight="1" ht="49.95" r="60" s="32">
       <c r="A60" t="n">
         <v>59</v>
       </c>
@@ -5902,9 +6182,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
-      <c r="G60" s="3" t="inlineStr">
+      <c r="E60" s="33" t="n"/>
+      <c r="F60" s="33" t="n"/>
+      <c r="G60" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5917,7 +6197,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="61" s="28">
+    <row customHeight="1" ht="49.95" r="61" s="32">
       <c r="A61" t="n">
         <v>60</v>
       </c>
@@ -5936,13 +6216,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E61" s="33" t="inlineStr">
         <is>
           <t>qno=0101</t>
         </is>
       </c>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="F61" s="33" t="n"/>
+      <c r="G61" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5955,7 +6235,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="62" s="28">
+    <row customHeight="1" ht="49.95" r="62" s="32">
       <c r="A62" t="n">
         <v>61</v>
       </c>
@@ -5974,13 +6254,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="33" t="inlineStr">
         <is>
           <t>customerNumber=13201646126</t>
         </is>
       </c>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="inlineStr">
+      <c r="F62" s="33" t="n"/>
+      <c r="G62" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -5993,7 +6273,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="63" s="28">
+    <row customHeight="1" ht="49.95" r="63" s="32">
       <c r="A63" t="n">
         <v>62</v>
       </c>
@@ -6012,13 +6292,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E63" s="33" t="inlineStr">
         <is>
           <t>cno=1088</t>
         </is>
       </c>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="F63" s="33" t="n"/>
+      <c r="G63" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6031,7 +6311,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="64" s="28">
+    <row customHeight="1" ht="49.95" r="64" s="32">
       <c r="A64" t="n">
         <v>63</v>
       </c>
@@ -6050,13 +6330,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="33" t="inlineStr">
         <is>
           <t>hotline=02963352759</t>
         </is>
       </c>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="F64" s="33" t="n"/>
+      <c r="G64" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6069,7 +6349,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="65" s="28">
+    <row customHeight="1" ht="49.95" r="65" s="32">
       <c r="A65" t="n">
         <v>64</v>
       </c>
@@ -6088,13 +6368,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E65" s="33" t="inlineStr">
         <is>
           <t>province=%E5%8C%97%E4%BA%AC</t>
         </is>
       </c>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="F65" s="33" t="n"/>
+      <c r="G65" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6107,7 +6387,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="66" s="28">
+    <row customHeight="1" ht="49.95" r="66" s="32">
       <c r="A66" t="n">
         <v>65</v>
       </c>
@@ -6126,13 +6406,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E66" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402098.102263</t>
         </is>
       </c>
-      <c r="F66" s="3" t="n"/>
-      <c r="G66" s="3" t="inlineStr">
+      <c r="F66" s="33" t="n"/>
+      <c r="G66" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6145,7 +6425,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="67" s="28">
+    <row customHeight="1" ht="49.95" r="67" s="32">
       <c r="A67" t="n">
         <v>66</v>
       </c>
@@ -6164,13 +6444,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E67" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402098.102263</t>
         </is>
       </c>
-      <c r="F67" s="3" t="n"/>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="F67" s="33" t="n"/>
+      <c r="G67" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6183,7 +6463,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="68" s="28">
+    <row customHeight="1" ht="49.95" r="68" s="32">
       <c r="A68" t="n">
         <v>67</v>
       </c>
@@ -6202,9 +6482,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n"/>
-      <c r="F68" s="3" t="n"/>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="E68" s="33" t="n"/>
+      <c r="F68" s="33" t="n"/>
+      <c r="G68" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -6217,7 +6497,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="69" s="28">
+    <row customHeight="1" ht="49.95" r="69" s="32">
       <c r="A69" t="n">
         <v>68</v>
       </c>
@@ -6236,13 +6516,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E69" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402100.102263</t>
         </is>
       </c>
-      <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="F69" s="33" t="n"/>
+      <c r="G69" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 404
@@ -6255,7 +6535,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="70" s="28">
+    <row customHeight="1" ht="49.95" r="70" s="32">
       <c r="A70" t="n">
         <v>69</v>
       </c>
@@ -6274,13 +6554,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E70" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402098.102263</t>
         </is>
       </c>
-      <c r="F70" s="3" t="n"/>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="F70" s="33" t="n"/>
+      <c r="G70" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6293,7 +6573,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="71" s="28">
+    <row customHeight="1" ht="49.95" r="71" s="32">
       <c r="A71" t="n">
         <v>70</v>
       </c>
@@ -6312,13 +6592,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E71" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402100.102263</t>
         </is>
       </c>
-      <c r="F71" s="3" t="n"/>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="F71" s="33" t="n"/>
+      <c r="G71" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6331,7 +6611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="72" s="28">
+    <row customHeight="1" ht="49.95" r="72" s="32">
       <c r="A72" t="n">
         <v>71</v>
       </c>
@@ -6350,13 +6630,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
+      <c r="E72" s="33" t="inlineStr">
         <is>
           <t>date=#date#</t>
         </is>
       </c>
-      <c r="F72" s="3" t="n"/>
-      <c r="G72" s="3" t="inlineStr">
+      <c r="F72" s="33" t="n"/>
+      <c r="G72" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6369,7 +6649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="73" s="28">
+    <row customHeight="1" ht="49.95" r="73" s="32">
       <c r="A73" t="n">
         <v>72</v>
       </c>
@@ -6388,13 +6668,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
+      <c r="E73" s="33" t="inlineStr">
         <is>
           <t>date=20251120</t>
         </is>
       </c>
-      <c r="F73" s="3" t="n"/>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="F73" s="33" t="n"/>
+      <c r="G73" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6407,7 +6687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="74" s="28">
+    <row customHeight="1" ht="49.95" r="74" s="32">
       <c r="A74" t="n">
         <v>73</v>
       </c>
@@ -6426,13 +6706,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
+      <c r="E74" s="33" t="inlineStr">
         <is>
           <t>date=#date#</t>
         </is>
       </c>
-      <c r="F74" s="3" t="n"/>
-      <c r="G74" s="3" t="inlineStr">
+      <c r="F74" s="33" t="n"/>
+      <c r="G74" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6445,7 +6725,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="75" s="28">
+    <row customHeight="1" ht="49.95" r="75" s="32">
       <c r="A75" t="n">
         <v>74</v>
       </c>
@@ -6464,13 +6744,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E75" s="3" t="inlineStr">
+      <c r="E75" s="33" t="inlineStr">
         <is>
           <t>date=20251120</t>
         </is>
       </c>
-      <c r="F75" s="3" t="n"/>
-      <c r="G75" s="3" t="inlineStr">
+      <c r="F75" s="33" t="n"/>
+      <c r="G75" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6483,7 +6763,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="76" s="28">
+    <row customHeight="1" ht="49.95" r="76" s="32">
       <c r="A76" t="n">
         <v>75</v>
       </c>
@@ -6502,9 +6782,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n"/>
-      <c r="F76" s="3" t="n"/>
-      <c r="G76" s="3" t="inlineStr">
+      <c r="E76" s="33" t="n"/>
+      <c r="F76" s="33" t="n"/>
+      <c r="G76" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6517,7 +6797,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="77" s="28">
+    <row customHeight="1" ht="49.95" r="77" s="32">
       <c r="A77" t="n">
         <v>76</v>
       </c>
@@ -6536,13 +6816,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
+      <c r="E77" s="33" t="inlineStr">
         <is>
           <t>qno=0101</t>
         </is>
       </c>
-      <c r="F77" s="3" t="n"/>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="F77" s="33" t="n"/>
+      <c r="G77" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6555,7 +6835,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="78" s="28">
+    <row customHeight="1" ht="49.95" r="78" s="32">
       <c r="A78" t="n">
         <v>77</v>
       </c>
@@ -6574,13 +6854,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="E78" s="33" t="inlineStr">
         <is>
           <t>customerNumber=13201646126</t>
         </is>
       </c>
-      <c r="F78" s="3" t="n"/>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="F78" s="33" t="n"/>
+      <c r="G78" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6593,7 +6873,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="79" s="28">
+    <row customHeight="1" ht="49.95" r="79" s="32">
       <c r="A79" t="n">
         <v>78</v>
       </c>
@@ -6612,13 +6892,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
+      <c r="E79" s="33" t="inlineStr">
         <is>
           <t>cno=1088</t>
         </is>
       </c>
-      <c r="F79" s="3" t="n"/>
-      <c r="G79" s="3" t="inlineStr">
+      <c r="F79" s="33" t="n"/>
+      <c r="G79" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6631,7 +6911,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="80" s="28">
+    <row customHeight="1" ht="49.95" r="80" s="32">
       <c r="A80" t="n">
         <v>79</v>
       </c>
@@ -6650,13 +6930,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="E80" s="33" t="inlineStr">
         <is>
           <t>hotline=02963352759</t>
         </is>
       </c>
-      <c r="F80" s="3" t="n"/>
-      <c r="G80" s="3" t="inlineStr">
+      <c r="F80" s="33" t="n"/>
+      <c r="G80" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6669,7 +6949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="81" s="28">
+    <row customHeight="1" ht="49.95" r="81" s="32">
       <c r="A81" t="n">
         <v>80</v>
       </c>
@@ -6688,13 +6968,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
+      <c r="E81" s="33" t="inlineStr">
         <is>
           <t>province=%E5%8C%97%E4%BA%AC</t>
         </is>
       </c>
-      <c r="F81" s="3" t="n"/>
-      <c r="G81" s="3" t="inlineStr">
+      <c r="F81" s="33" t="n"/>
+      <c r="G81" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6707,7 +6987,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="82" s="28">
+    <row customHeight="1" ht="49.95" r="82" s="32">
       <c r="A82" t="n">
         <v>81</v>
       </c>
@@ -6726,13 +7006,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
+      <c r="E82" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419459.122375</t>
         </is>
       </c>
-      <c r="F82" s="3" t="n"/>
-      <c r="G82" s="3" t="inlineStr">
+      <c r="F82" s="33" t="n"/>
+      <c r="G82" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6745,7 +7025,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="83" s="28">
+    <row customHeight="1" ht="49.95" r="83" s="32">
       <c r="A83" t="n">
         <v>82</v>
       </c>
@@ -6764,13 +7044,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
+      <c r="E83" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419459.122375</t>
         </is>
       </c>
-      <c r="F83" s="3" t="n"/>
-      <c r="G83" s="3" t="inlineStr">
+      <c r="F83" s="33" t="n"/>
+      <c r="G83" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6783,7 +7063,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="84" s="28">
+    <row customHeight="1" ht="49.95" r="84" s="32">
       <c r="A84" t="n">
         <v>83</v>
       </c>
@@ -6802,9 +7082,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="3" t="n"/>
-      <c r="G84" s="3" t="inlineStr">
+      <c r="E84" s="33" t="n"/>
+      <c r="F84" s="33" t="n"/>
+      <c r="G84" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -6817,7 +7097,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="85" s="28">
+    <row customHeight="1" ht="49.95" r="85" s="32">
       <c r="A85" t="n">
         <v>84</v>
       </c>
@@ -6836,13 +7116,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr">
+      <c r="E85" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_3-1627476298.59136</t>
         </is>
       </c>
-      <c r="F85" s="3" t="n"/>
-      <c r="G85" s="3" t="inlineStr">
+      <c r="F85" s="33" t="n"/>
+      <c r="G85" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 404
@@ -6855,7 +7135,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="86" s="28">
+    <row customHeight="1" ht="49.95" r="86" s="32">
       <c r="A86" t="n">
         <v>85</v>
       </c>
@@ -6874,13 +7154,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E86" s="3" t="inlineStr">
+      <c r="E86" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419459.122375</t>
         </is>
       </c>
-      <c r="F86" s="3" t="n"/>
-      <c r="G86" s="3" t="inlineStr">
+      <c r="F86" s="33" t="n"/>
+      <c r="G86" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6893,7 +7173,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="87" s="28">
+    <row customHeight="1" ht="49.95" r="87" s="32">
       <c r="A87" t="n">
         <v>86</v>
       </c>
@@ -6912,13 +7192,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="E87" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_6-1630402100.102263</t>
         </is>
       </c>
-      <c r="F87" s="3" t="n"/>
-      <c r="G87" s="3" t="inlineStr">
+      <c r="F87" s="33" t="n"/>
+      <c r="G87" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6931,7 +7211,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="88" s="28">
+    <row customHeight="1" ht="49.95" r="88" s="32">
       <c r="A88" t="n">
         <v>87</v>
       </c>
@@ -6950,13 +7230,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="E88" s="33" t="inlineStr">
         <is>
           <t>date=#date#</t>
         </is>
       </c>
-      <c r="F88" s="3" t="n"/>
-      <c r="G88" s="3" t="inlineStr">
+      <c r="F88" s="33" t="n"/>
+      <c r="G88" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -6969,7 +7249,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="89" s="28">
+    <row customHeight="1" ht="49.95" r="89" s="32">
       <c r="A89" t="n">
         <v>88</v>
       </c>
@@ -6988,13 +7268,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="E89" s="33" t="inlineStr">
         <is>
           <t>date=20251120</t>
         </is>
       </c>
-      <c r="F89" s="3" t="n"/>
-      <c r="G89" s="3" t="inlineStr">
+      <c r="F89" s="33" t="n"/>
+      <c r="G89" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7007,7 +7287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="90" s="28">
+    <row customHeight="1" ht="49.95" r="90" s="32">
       <c r="A90" t="n">
         <v>89</v>
       </c>
@@ -7026,13 +7306,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="E90" s="33" t="inlineStr">
         <is>
           <t>date=#date#</t>
         </is>
       </c>
-      <c r="F90" s="3" t="n"/>
-      <c r="G90" s="3" t="inlineStr">
+      <c r="F90" s="33" t="n"/>
+      <c r="G90" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7045,7 +7325,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="91" s="28">
+    <row customHeight="1" ht="49.95" r="91" s="32">
       <c r="A91" t="n">
         <v>90</v>
       </c>
@@ -7064,13 +7344,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E91" s="3" t="inlineStr">
+      <c r="E91" s="33" t="inlineStr">
         <is>
           <t>date=20251120</t>
         </is>
       </c>
-      <c r="F91" s="3" t="n"/>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="F91" s="33" t="n"/>
+      <c r="G91" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7083,7 +7363,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="92" s="28">
+    <row customHeight="1" ht="49.95" r="92" s="32">
       <c r="A92" t="n">
         <v>91</v>
       </c>
@@ -7102,13 +7382,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="E92" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373</t>
         </is>
       </c>
-      <c r="F92" s="3" t="n"/>
-      <c r="G92" s="3" t="inlineStr">
+      <c r="F92" s="33" t="n"/>
+      <c r="G92" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7121,7 +7401,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="93" s="28">
+    <row customHeight="1" ht="49.95" r="93" s="32">
       <c r="A93" t="n">
         <v>92</v>
       </c>
@@ -7140,13 +7420,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="E93" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=1</t>
         </is>
       </c>
-      <c r="F93" s="3" t="n"/>
-      <c r="G93" s="3" t="inlineStr">
+      <c r="F93" s="33" t="n"/>
+      <c r="G93" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7159,7 +7439,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="94" s="28">
+    <row customHeight="1" ht="49.95" r="94" s="32">
       <c r="A94" t="n">
         <v>93</v>
       </c>
@@ -7178,13 +7458,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
+      <c r="E94" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=2</t>
         </is>
       </c>
-      <c r="F94" s="3" t="n"/>
-      <c r="G94" s="3" t="inlineStr">
+      <c r="F94" s="33" t="n"/>
+      <c r="G94" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7197,7 +7477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="95" s="28">
+    <row customHeight="1" ht="49.95" r="95" s="32">
       <c r="A95" t="n">
         <v>94</v>
       </c>
@@ -7216,13 +7496,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="E95" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=3</t>
         </is>
       </c>
-      <c r="F95" s="3" t="n"/>
-      <c r="G95" s="3" t="inlineStr">
+      <c r="F95" s="33" t="n"/>
+      <c r="G95" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7235,7 +7515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="96" s="28">
+    <row customHeight="1" ht="49.95" r="96" s="32">
       <c r="A96" t="n">
         <v>95</v>
       </c>
@@ -7254,13 +7534,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E96" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419411.122373</t>
         </is>
       </c>
-      <c r="F96" s="3" t="n"/>
-      <c r="G96" s="3" t="inlineStr">
+      <c r="F96" s="33" t="n"/>
+      <c r="G96" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7273,7 +7553,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="97" s="28">
+    <row customHeight="1" ht="49.95" r="97" s="32">
       <c r="A97" t="n">
         <v>96</v>
       </c>
@@ -7292,13 +7572,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="E97" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373</t>
         </is>
       </c>
-      <c r="F97" s="3" t="n"/>
-      <c r="G97" s="3" t="inlineStr">
+      <c r="F97" s="33" t="n"/>
+      <c r="G97" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7311,7 +7591,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="98" s="28">
+    <row customHeight="1" ht="49.95" r="98" s="32">
       <c r="A98" t="n">
         <v>97</v>
       </c>
@@ -7330,13 +7610,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr">
+      <c r="E98" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=1</t>
         </is>
       </c>
-      <c r="F98" s="3" t="n"/>
-      <c r="G98" s="3" t="inlineStr">
+      <c r="F98" s="33" t="n"/>
+      <c r="G98" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7349,7 +7629,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="99" s="28">
+    <row customHeight="1" ht="49.95" r="99" s="32">
       <c r="A99" t="n">
         <v>98</v>
       </c>
@@ -7368,13 +7648,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
+      <c r="E99" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=2</t>
         </is>
       </c>
-      <c r="F99" s="3" t="n"/>
-      <c r="G99" s="3" t="inlineStr">
+      <c r="F99" s="33" t="n"/>
+      <c r="G99" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7387,7 +7667,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="100" s="28">
+    <row customHeight="1" ht="49.95" r="100" s="32">
       <c r="A100" t="n">
         <v>99</v>
       </c>
@@ -7406,13 +7686,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E100" s="3" t="inlineStr">
+      <c r="E100" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1630419455.122373&amp;recordSide=3</t>
         </is>
       </c>
-      <c r="F100" s="3" t="n"/>
-      <c r="G100" s="3" t="inlineStr">
+      <c r="F100" s="33" t="n"/>
+      <c r="G100" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7425,7 +7705,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="101" s="28">
+    <row customHeight="1" ht="49.95" r="101" s="32">
       <c r="A101" t="n">
         <v>100</v>
       </c>
@@ -7444,13 +7724,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
+      <c r="E101" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_7-1628419455.122373</t>
         </is>
       </c>
-      <c r="F101" s="3" t="n"/>
-      <c r="G101" s="3" t="inlineStr">
+      <c r="F101" s="33" t="n"/>
+      <c r="G101" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7463,7 +7743,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="102" s="28">
+    <row customHeight="1" ht="49.95" r="102" s="32">
       <c r="A102" t="n">
         <v>101</v>
       </c>
@@ -7482,13 +7762,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E102" s="3" t="inlineStr">
+      <c r="E102" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368&amp;uniqueId=medias_5-1630641756.46370</t>
         </is>
       </c>
-      <c r="F102" s="3" t="n"/>
-      <c r="G102" s="3" t="inlineStr">
+      <c r="F102" s="33" t="n"/>
+      <c r="G102" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7501,7 +7781,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="103" s="28">
+    <row customHeight="1" ht="49.95" r="103" s="32">
       <c r="A103" t="n">
         <v>102</v>
       </c>
@@ -7520,13 +7800,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E103" s="3" t="inlineStr">
+      <c r="E103" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368&amp;uniqueId=medias_5-1630641756.46370&amp;recordSide=1</t>
         </is>
       </c>
-      <c r="F103" s="3" t="n"/>
-      <c r="G103" s="3" t="inlineStr">
+      <c r="F103" s="33" t="n"/>
+      <c r="G103" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7539,7 +7819,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="104" s="28">
+    <row customHeight="1" ht="49.95" r="104" s="32">
       <c r="A104" t="n">
         <v>103</v>
       </c>
@@ -7558,13 +7838,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E104" s="3" t="inlineStr">
+      <c r="E104" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368&amp;uniqueId=medias_5-1630641756.46370&amp;recordSide=2</t>
         </is>
       </c>
-      <c r="F104" s="3" t="n"/>
-      <c r="G104" s="3" t="inlineStr">
+      <c r="F104" s="33" t="n"/>
+      <c r="G104" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7577,7 +7857,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="105" s="28">
+    <row customHeight="1" ht="49.95" r="105" s="32">
       <c r="A105" t="n">
         <v>104</v>
       </c>
@@ -7596,13 +7876,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
+      <c r="E105" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368&amp;uniqueId=medias_5-1630641756.46370&amp;recordSide=3</t>
         </is>
       </c>
-      <c r="F105" s="3" t="n"/>
-      <c r="G105" s="3" t="inlineStr">
+      <c r="F105" s="33" t="n"/>
+      <c r="G105" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7615,7 +7895,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="106" s="28">
+    <row customHeight="1" ht="49.95" r="106" s="32">
       <c r="A106" t="n">
         <v>105</v>
       </c>
@@ -7634,13 +7914,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
+      <c r="E106" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1620641756.46368&amp;uniqueId=medias_5-1630641756.46370</t>
         </is>
       </c>
-      <c r="F106" s="3" t="n"/>
-      <c r="G106" s="3" t="inlineStr">
+      <c r="F106" s="33" t="n"/>
+      <c r="G106" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7653,7 +7933,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="107" s="28">
+    <row customHeight="1" ht="49.95" r="107" s="32">
       <c r="A107" t="n">
         <v>106</v>
       </c>
@@ -7672,13 +7952,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
+      <c r="E107" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368&amp;uniqueId=medias_5-1630641756.46371</t>
         </is>
       </c>
-      <c r="F107" s="3" t="n"/>
-      <c r="G107" s="3" t="inlineStr">
+      <c r="F107" s="33" t="n"/>
+      <c r="G107" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7691,7 +7971,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="108" s="28">
+    <row customHeight="1" ht="49.95" r="108" s="32">
       <c r="A108" t="n">
         <v>107</v>
       </c>
@@ -7710,13 +7990,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
+      <c r="E108" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1620641756.46368&amp;uniqueId=medias_5-1630641756.46371</t>
         </is>
       </c>
-      <c r="F108" s="3" t="n"/>
-      <c r="G108" s="3" t="inlineStr">
+      <c r="F108" s="33" t="n"/>
+      <c r="G108" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7729,7 +8009,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="109" s="28">
+    <row customHeight="1" ht="49.95" r="109" s="32">
       <c r="A109" t="n">
         <v>108</v>
       </c>
@@ -7748,9 +8028,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E109" s="3" t="n"/>
-      <c r="F109" s="3" t="n"/>
-      <c r="G109" s="3" t="inlineStr">
+      <c r="E109" s="33" t="n"/>
+      <c r="F109" s="33" t="n"/>
+      <c r="G109" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7763,7 +8043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="110" s="28">
+    <row customHeight="1" ht="49.95" r="110" s="32">
       <c r="A110" t="n">
         <v>109</v>
       </c>
@@ -7782,13 +8062,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
+      <c r="E110" s="33" t="inlineStr">
         <is>
           <t>endTime=#endTime#</t>
         </is>
       </c>
-      <c r="F110" s="3" t="n"/>
-      <c r="G110" s="3" t="inlineStr">
+      <c r="F110" s="33" t="n"/>
+      <c r="G110" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7801,7 +8081,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="111" s="28">
+    <row customHeight="1" ht="49.95" r="111" s="32">
       <c r="A111" t="n">
         <v>110</v>
       </c>
@@ -7820,13 +8100,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E111" s="3" t="inlineStr">
+      <c r="E111" s="33" t="inlineStr">
         <is>
           <t>endTime=#endTime#&amp;startTime=#startTime#</t>
         </is>
       </c>
-      <c r="F111" s="3" t="n"/>
-      <c r="G111" s="3" t="inlineStr">
+      <c r="F111" s="33" t="n"/>
+      <c r="G111" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7839,7 +8119,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="112" s="28">
+    <row customHeight="1" ht="49.95" r="112" s="32">
       <c r="A112" t="n">
         <v>111</v>
       </c>
@@ -7858,13 +8138,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E112" s="3" t="inlineStr">
+      <c r="E112" s="33" t="inlineStr">
         <is>
           <t>mainUniqueId=medias_5-1630641756.46368</t>
         </is>
       </c>
-      <c r="F112" s="3" t="n"/>
-      <c r="G112" s="3" t="inlineStr">
+      <c r="F112" s="33" t="n"/>
+      <c r="G112" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7877,7 +8157,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="113" s="28">
+    <row customHeight="1" ht="49.95" r="113" s="32">
       <c r="A113" t="n">
         <v>112</v>
       </c>
@@ -7896,13 +8176,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E113" s="3" t="inlineStr">
+      <c r="E113" s="33" t="inlineStr">
         <is>
           <t>enterpriseId=8000002&amp;mainUniqueId=medias_5-1630641756.46368</t>
         </is>
       </c>
-      <c r="F113" s="3" t="n"/>
-      <c r="G113" s="3" t="inlineStr">
+      <c r="F113" s="33" t="n"/>
+      <c r="G113" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7915,7 +8195,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="114" s="28">
+    <row customHeight="1" ht="49.95" r="114" s="32">
       <c r="A114" t="n">
         <v>113</v>
       </c>
@@ -7934,9 +8214,9 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E114" s="3" t="n"/>
-      <c r="F114" s="3" t="n"/>
-      <c r="G114" s="3" t="inlineStr">
+      <c r="E114" s="33" t="n"/>
+      <c r="F114" s="33" t="n"/>
+      <c r="G114" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -7949,7 +8229,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="115" s="28">
+    <row customHeight="1" ht="49.95" r="115" s="32">
       <c r="A115" t="n">
         <v>114</v>
       </c>
@@ -7968,13 +8248,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
+      <c r="E115" s="33" t="inlineStr">
         <is>
           <t>endTime=#endTime#</t>
         </is>
       </c>
-      <c r="F115" s="3" t="n"/>
-      <c r="G115" s="3" t="inlineStr">
+      <c r="F115" s="33" t="n"/>
+      <c r="G115" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -7987,7 +8267,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="116" s="28">
+    <row customHeight="1" ht="49.95" r="116" s="32">
       <c r="A116" t="n">
         <v>115</v>
       </c>
@@ -8006,13 +8286,13 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="E116" s="33" t="inlineStr">
         <is>
           <t>endTime=#endTime#&amp;startTime=#startTime#</t>
         </is>
       </c>
-      <c r="F116" s="3" t="n"/>
-      <c r="G116" s="3" t="inlineStr">
+      <c r="F116" s="33" t="n"/>
+      <c r="G116" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -8025,7 +8305,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="117" s="28">
+    <row customHeight="1" ht="61.95" r="117" s="32">
       <c r="A117" t="n">
         <v>116</v>
       </c>
@@ -8044,7 +8324,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E117" s="3" t="inlineStr">
+      <c r="E117" s="33" t="inlineStr">
         <is>
           <t>{
    "cno":"1089",   
@@ -8058,7 +8338,7 @@
           <t>json</t>
         </is>
       </c>
-      <c r="G117" s="3" t="inlineStr">
+      <c r="G117" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
@@ -8071,7 +8351,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="118" s="28">
+    <row customHeight="1" ht="61.95" r="118" s="32">
       <c r="A118" t="n">
         <v>117</v>
       </c>
@@ -8090,7 +8370,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E118" s="33" t="inlineStr">
         <is>
           <t>{
     "cno":"1089", 
@@ -8104,7 +8384,7 @@
           <t>json</t>
         </is>
       </c>
-      <c r="G118" s="3" t="inlineStr">
+      <c r="G118" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 400
@@ -8117,7 +8397,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="119" s="28">
+    <row customHeight="1" ht="49.95" r="119" s="32">
       <c r="A119" t="n">
         <v>118</v>
       </c>
@@ -8136,7 +8416,7 @@
           <t>GET</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
+      <c r="E119" s="33" t="inlineStr">
         <is>
           <t>tel=13212344321</t>
         </is>
@@ -8146,7 +8426,7 @@
           <t>json</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr">
+      <c r="G119" s="33" t="inlineStr">
         <is>
           <t>{
     "status_code": 200
